--- a/audio/zh/方案二/美食店家/美食問題.xlsx
+++ b/audio/zh/方案二/美食店家/美食問題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\audio_demo_project\audio\zh\方案二\美食店家\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7879EC3E-59BF-4556-899A-4EFC195FC3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5254C3-0C88-4AA7-8333-54C732263414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,9 +461,6 @@
     <t>有推薦可以吃到多種口味肉粽的地方或店家嗎?</t>
   </si>
   <si>
-    <t>請問有推薦可以吃到有特色玩果和豆仔湯的餐廳嗎?</t>
-  </si>
-  <si>
     <t>我想找可以品嘗到道地意麵的餐廳 有推薦嗎?</t>
   </si>
   <si>
@@ -482,9 +479,6 @@
     <t>我想找好吃又健康的香腸有推薦的嗎?</t>
   </si>
   <si>
-    <t>請問鹽水區 哪裡可以吃到 道地的義麵或小吃?</t>
-  </si>
-  <si>
     <t>哪裡可以品嘗到傳統糕餅 特別是水果餅</t>
   </si>
   <si>
@@ -500,27 +494,18 @@
     <t>我想找可以喝到獨特口味的紅茶店 有推薦嗎?</t>
   </si>
   <si>
-    <t>請問哪裡可以買到 道地的古早味冰棒?</t>
-  </si>
-  <si>
     <t>請問在台南有哪裡可以吃到蝦仁肉圓?</t>
   </si>
   <si>
     <t>這次來台南想找有Q彈丸果的餐廳 可以推薦嗎?</t>
   </si>
   <si>
-    <t>可以推薦一家在地人喜愛的米糕或根湯店嗎?</t>
-  </si>
-  <si>
     <t>附近有沒有餐廳賣燒牌砂鍋鴨?</t>
   </si>
   <si>
     <t>請問哪裡可以吃到好吃的傳統甜品?有推薦的店嗎?</t>
   </si>
   <si>
-    <t>我在台南玩的時候 哪裡可以吃到好吃的手工甜品?</t>
-  </si>
-  <si>
     <t>請問哪裡可以找到當天現做的滷味店?</t>
   </si>
   <si>
@@ -536,96 +521,39 @@
     <t>請問這附近有可以吃到用新鮮水果做的甜點嗎?</t>
   </si>
   <si>
-    <t>請問在這附近哪裡可以買到米漬或 連子相關的伴手禮或小吃?</t>
-  </si>
-  <si>
     <t>請問在附近哪裡可以買到有特色的雞蛋產品?</t>
   </si>
   <si>
     <t>請問這裡附近可以品嘗到優質的咖啡嗎?</t>
   </si>
   <si>
-    <t>請問在當地有什麼以米產品為主的特色店家 值得推薦嗎?</t>
-  </si>
-  <si>
-    <t>想找一家專賣傳統中式糕點的店 你有推薦嗎?</t>
-  </si>
-  <si>
     <t>請問有沒有推薦以古法製作滷味的在地小吃店可以去吃看看?</t>
   </si>
   <si>
-    <t>附近哪裡有賣好吃的手工點心嗎?</t>
-  </si>
-  <si>
-    <t>在傳統市場有什麼當地特色零食值得推薦嗎?</t>
-  </si>
-  <si>
-    <t>推薦幾家在地口碑好又經營已久的水果店讓我去逛逛嗎?</t>
-  </si>
-  <si>
-    <t>我來這裡旅遊香皂幾家有特色的鹹州餐廳可以推薦嗎?</t>
-  </si>
-  <si>
-    <t>在台南還有哪些百年老字號的小吃點可以推薦嗎?</t>
-  </si>
-  <si>
     <t>請問這附近有推薦的特色小吃點嗎?</t>
   </si>
   <si>
     <t>請問這附近有哪幾家專賣米糕的傳統小吃店可以推薦給我嗎?</t>
   </si>
   <si>
-    <t>台南旅遊香皂 適合全家聚餐的漁碗餐廳可以推薦嗎?</t>
-  </si>
-  <si>
-    <t>南香蕉繞字號的西點 專賣蛋糕或麵包有推薦的嗎?</t>
-  </si>
-  <si>
     <t>在台南哪裡可以吃到像花生冷湯這種古早味糖品嗎?</t>
   </si>
   <si>
-    <t>去哪裡買到台灣特產蜜餞?</t>
-  </si>
-  <si>
-    <t>你有推薦的首購餅鋪可以買到好吃的肉包和糕點嗎?</t>
-  </si>
-  <si>
     <t>請問有哪裡可以買到像黑糖香餅這種傳統特色糕點嗎?</t>
   </si>
   <si>
-    <t>這附近有沒有推薦的傳統手作和素食點心店家呢?</t>
-  </si>
-  <si>
     <t>香皂又不添加化學成分冬瓜茶的店要去哪裡?</t>
   </si>
   <si>
-    <t>到台南哪裡可以品嘗到百年老爺的蜜餡?</t>
-  </si>
-  <si>
     <t>不好意思請問這附近哪裡可以買到限量的傳統糕點呢?</t>
   </si>
   <si>
-    <t>我是觀光客 想找有歷史的查行 要去哪裡比較好呢?</t>
-  </si>
-  <si>
-    <t>台南有沒有像樣的老字號茶妝可以去體驗 傳統茶文化的地方呢?</t>
-  </si>
-  <si>
-    <t>那有沒有其他老字號的茶窗可以推薦我去參觀呢?</t>
-  </si>
-  <si>
     <t>在台南有沒有結合傳統建築又能平常在地小吃的好去處呢?</t>
   </si>
   <si>
-    <t>常常有名的蝦人飯請問在台南還有哪些地方可以找到類似的美食呢?</t>
-  </si>
-  <si>
     <t>我想在台南四四傳統肉粽還有其他人、氣墊家可以推薦嗎?</t>
   </si>
   <si>
-    <t>我在旅行想找能深金子殼的在地特色飲品有推薦嗎?</t>
-  </si>
-  <si>
     <t>請問哪裡有以新鮮海鮮為主要特色的餐廳可以推薦嗎?</t>
   </si>
   <si>
@@ -638,42 +566,21 @@
     <t>請問哪裡可以吃到不油膩的脆皮小吃?</t>
   </si>
   <si>
-    <t>請問來台南有什麼推薦的伴手禮和在地特色水果可以帶回去嗎?</t>
-  </si>
-  <si>
     <t>請問除了這裡還有其他地方可以買到健康的蝦餅嗎?</t>
   </si>
   <si>
     <t>請問這附近還有哪裡可以買到手工餅乾或伴手禮嗎?</t>
   </si>
   <si>
-    <t>請問在哪裡可以找到口感很好的麻薯和大虎嗎?</t>
-  </si>
-  <si>
-    <t>來台南玩哪裡有好吃的滑嫩豆花可以推薦嗎?</t>
-  </si>
-  <si>
-    <t>在旅途中想吃口感獨特的米糕 可以推薦哪間餐廳嗎?</t>
-  </si>
-  <si>
     <t>請問我可以在哪裡找到甜點不佳、水、口感更濃厚的餐廳?</t>
   </si>
   <si>
-    <t>問哪裡有提供套餐的 複合式餐飲店可以推薦嗎?</t>
-  </si>
-  <si>
-    <t>我正在找評價又好吃的肉燒飯或肉燒麵 可以去哪裡吃嗎?</t>
-  </si>
-  <si>
     <t>我想找使用傳統工法製作的包子 請問有推薦的店家嗎?</t>
   </si>
   <si>
     <t>請問有推薦可以在咖啡園區一邊喝咖啡欣賞美景並享用美食的地方嗎?</t>
   </si>
   <si>
-    <t>我在台南旅遊想找以鱔魚料理為主的小吃店有推薦嗎?</t>
-  </si>
-  <si>
     <t>我第一次來台南請問哪裡有便宜又好吃的小吃可以推薦?</t>
   </si>
   <si>
@@ -695,428 +602,27 @@
     <t>請問在台南哪裡有風格獨特又氛圍舒適的咖啡店可以推薦的嗎?</t>
   </si>
   <si>
-    <t>我在旅行 想找一家能讓我放鬆又能品嘗特色飲品的咖啡館。請問有推薦的嗎?</t>
-  </si>
-  <si>
     <t>我在台南旅遊想找可以喝到現泡咖啡?又有三明治搭配的咖啡店有哪些?</t>
   </si>
   <si>
     <t>請問在南區有沒有可以坐下來享用多種飲品和餐點的咖啡店推薦嗎?</t>
   </si>
   <si>
-    <t>點問在台灣想吃橡蛋仔麵的傳統小吃可以去哪裡?</t>
-  </si>
-  <si>
-    <t>除了江川肉燥飯之外 我還能去哪裡吃到好吃的肉燥飯</t>
-  </si>
-  <si>
-    <t>我第一次來台南想找好吃的炸魚店 可以推薦幾家嗎?</t>
-  </si>
-  <si>
     <t>在台南有沒有像香腸和冷食這類的傳統小吃可以推薦的地方嗎?</t>
   </si>
   <si>
-    <t>我到台南想吃晚貴那種經典美食 有什麼推薦的嗎?</t>
-  </si>
-  <si>
     <t>請問來台南有沒有推薦的 有名羹類料理或熱門吃的地方可以介紹?</t>
   </si>
   <si>
-    <t>請問在台南哪裡可以吃到有懷舊氛圍的特色丸果嗎?</t>
-  </si>
-  <si>
-    <t>台南想吃道地的米食和傳統湯品 有什麼推薦的店家嗎?</t>
-  </si>
-  <si>
     <t>請問哪裡可以找到好吃的滷麵或傳統米糕?</t>
   </si>
   <si>
     <t>想請問附近有沒有好吃又健康的燒肉飯 可以推薦的嗎?</t>
   </si>
   <si>
-    <t>請問在台南有米其林推薦的店家嗎?特別是賣米糕的。</t>
-  </si>
-  <si>
-    <t>我來台南旅行 想請問哪裡可以吃到當地受歡迎的私牧魚料理?</t>
-  </si>
-  <si>
     <t>請問哪裡的肉圓比較特別或有特色值得我去嘗嘗的嗎?</t>
   </si>
   <si>
-    <t>在卓仔麵店約500公尺處，有多家在地台南老店非常有名！其中，我特別要介紹「黃家蝦捲」，這家傳承五十年的經典小吃店以酥脆蝦子和清爽魚丸脆肉湯聞名，每週一至日下午二點半到晚上七點營業。我另外也建議可以造訪西羅殿牛肉湯，這是米其林必比登推介店，以新鮮台灣溫體牛肉及自製強力椒而吸引饕客注意，但記得避開尖峰時段人潮眾多時再去會更好。
-(以上為語音回應，自然、口語化且連貫地提供兩間店家資訊)</t>
-  </si>
-  <si>
-    <t>在離我所在位置約5.4公里處，有一家「俊吉當歸鴨」，它是以新鮮的鴨子和道地藥材聞名的一家傳統餐館，最受歡迎的招牌菜包括有著滑嫩口感的『草蝦天婦羅』其實是位於台南饗食天堂，但由於你詢問的是烤鴨相關料理，我會將焦點轉向這間店；不過要更正您所提菜色為不存在於該店家。我建議改往鄰近區域尋找，以鴨肉及在地中藥熬製而成，具有特殊風味且深受食客喜愛之美食：籃記東山鴨頭，它每日13:00-18:00營業，不含訂位。雖然可能需要排隊10到15</t>
-  </si>
-  <si>
-    <t>在這個台南城市裡，有家「阿明魯味」的店值得一試，它以每日手工現作的各式滷料和新鮮肉品所製成的獨特滷味聞名。在約500公尺處就能找到卓仔麵店，但並非此次介紹之對象，而要尋找新穎滋味可考慮位在古都巷弄內、步行僅需5分鐘左右的"小南米糕湯"(未提供詳細資訊)，但實際上最靠近且被提及與滷味相關的是位於3.6公里外，不過距離較遠的一間名店--輝哥本產牛肉爐旁有一條街上的另一攤『無名肉串』雖非傳統滷味卻是當地隱藏版美食。建議避開尖峰時段並</t>
-  </si>
-  <si>
-    <t>在離台南老爺行旅約2.5公里處，有一家「牛の屋」，以清燙牛肉和各式肉品聞名，是肉食愛好者的首選；另有老鄧牛肉麵，也是當地知名麵店，以獨特湯頭及軟嫩入味的肉受到好評。在營業時間內，可試著前往品嚐。「半筋半肉」也是必點招牌菜之一，你不妨試試看！建議提前詢問滷味小菜價格，並注意店家營運時段與環境舒適程度。
-(語音自然流順，無斷句)
-你好，我要介紹兩間在地有名、距離不遠又很美味的餐廳給您：位在台南市區大約1.8到3.6公裡外都有一個相當不錯吃的地方</t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍有多家美味麵店，可考慮以下兩處之一去品嚐。在本館旁約500公尺、步行5分鐘左右，有「阿發師老店」的招牌風味粥和各式手工麵條；另在離飯店不遠處約2.8公里車程內，也是當地人力推的一間店--『老廚小炒』提供道地台菜及多樣選擇，您可依個人喜好前往品嘗。
-建議先致電詢問營業時間與座位狀況，以確保不撲空或預約成功，享受更好的用餐體驗！</t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍，有一家「再發號肉粽」，約2.5公里遠，以其八寶粿聞名，每口都能嚐到豐富內餡及獨特肉汁口感。在另一邊不遠處，也有一個知名景點與美食區相近，但我要提醒您避開用餐高峰時段以減少等候時間。「品香肉粽」則是位於台南市東區的一間傳統老店，這兩處都是品嚐各式粽子、體驗在地文化很好的選擇。但如果想尋找更近一點且擁有多元口味的選項，建議可先向本飯店櫃檯詢問，由專人提供最即時又便利的資訊和指引。
-(以上回應將依系統需求進行調整)</t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍，有一家「小西腳碗粿」，約2.5公里遠，是當地知名且受歡迎的一處景點，以香Q的碗粿及濃郁的大骨熬製豆仔湯聞名，每口都充滿家鄉味！營業時間為週一至週日09：00～18：30，但週三休息喔。在這享用完美味後，也可順道參觀鄰近區域，如南紡購物中心等地逛逛。
-(注意事項)由於我是提供美食建議為主，不直接涉及距離量測或操作，若需更精確資訊，可洽櫃台詢問以獲得最即時與正確答案。</t>
-  </si>
-  <si>
-    <t>在這個問題中，我要向各位介紹兩家位在台南且以美味意麵聞名的店。一碗讓人回味無窮的是「古都碗粿」，雖然主要販售各式小吃，但其乾炒鱔魚意麫是必點招牌菜之一；另一間則是以傳承超過50年的老店而著名，即『阿輝炒鱔魚』所提供、口感清脆爽口的乾炰鱔魚肉意面也深受顧客喜愛。在這些店家裡，皆能品嘗到地道又可口的義大利麵食！距離楊哥楊嫂肉粽店約3.6公里處，有這麼二種選擇。建議您不妨先提前預約或提早抵達，以避免等待時間過</t>
-  </si>
-  <si>
-    <t>在楊哥楊嫂肉粽店和再發號肉粽這兩家人氣粿品中，我會建議你先試試「狀元粽」的招牌口味，它以多樣化食材組成、口感獨特而深受考生及當地人喜愛。在鄰近區域內，這一帶有多間知名傳統餅店，但如果要選擇其中之一，最適合嘗試的是位在台南市東區約4.2公里外，以月桃葉包製且擁有超過30年歷史的"品香肉粽". 雖然它比其他店家稍遠一些，卻是另一種風味體驗，而其特有的月桂花生米與雪蓮子，使人印象深刻！若想避開人潮，可考慮營業時間每日07：00-20：00。請於尖峰時段</t>
-  </si>
-  <si>
-    <t>阿三意麵是台南知名老店之一，以獨特鹽水風味和Q彈口感而聞名，其乾意麵搭配特製肉燥醬更是一大特色。在離我所在位置約7.4公里處，有一家東悅坊以其「掛爐烤鴨三吃」及多樣化港式美食吸引饕客，而非傳統中式老味道，但如果你在尋找道地古早味又想避開人潮時，可考慮造訪這兩間店！</t>
-  </si>
-  <si>
-    <t>在大鋤花間這家景觀餐聽可以享受美景與有機美食，大鋶花間約有3.6公里遠，是一處結合了大自然風光和健康餐飲概念的好去處。大鋸花間最值得必點的是「咖啡果露雞湯火鍋」及冷麵，這道菜以新鮮蔬果為食材，並附贈小點心讓人感受豐富又愜意地用餐體驗。在此提醒您，在平日可於10點到18點、週末從十點到21點交通時間前往，不過要注意週二、三是公休日。
-另外，我想向你介紹另一間位在台南烏山區，有著壯麗台南市景的大片綠地上，一座充滿原始風格且環境舒適的小咖啡館</t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍有多家冰店值得一提！離我所在位置約2.5公里，有「南方澳芹冰城」的古早味芋頭冰淇淋和創意口味；再往南走約4.8公里，就能到達以多樣化冰品聞名、環境清幽的善化糖廠門市部，這間店最推的是紅豆牛奶冰及核桃系列，而在這附近還有一個南風風菓室，是充滿懷舊氛圍且評價高達Google評分四．五顆星以上，以新鮮食材製作而成的傳統刨冰，讓人回味無窮。在這些店家中，最適合全家大小一同享用消暑聖品是哪一個？你不妨試試看位在台南市區內距離較近又受好評的"善化區</t>
-  </si>
-  <si>
-    <t>在這個問題中，我要向各位介紹兩家離台南老爺行旅不遠、且非常有名氣的特色小吃店！首先是「Bark露天茶飲酒吧」，雖然主要以飲品為主，但可以當作休息時間的小歇腳處，而非傳統小吃店。但如果你正尋找能品嚐道地台灣風味小點的話，有一間更適合：位在台南市區內約2.1公里遠的店家不多，這次選擇了較近的一位--"鬍鬚豬頭飯"，它位於鹽水地區，以獨特的豬頭飯聞名，每碗價格約為10-30元，是相當實惠而且值得嘗試的好滋味。建議可先至鄰近商圈逛逛再前往享用，更添</t>
-  </si>
-  <si>
-    <t>在柳營新地標不遠處，有兩家美食店值得一提！離我所在位置約5.6公里處，是「臺南市農會田媽媽」，以純鮮奶製成各式米麵食品，如軟Q有乳香的饅頭和包子；另一個地點是穀倉餐廳，也是以麻油雞及剝皮辣椒雞鍋聞名，在此您可享受在地獨特料理與舒適用餐環境，但要注意須提前訂位以免假日人潮擁擠，而營業時間為週二至週日11點到14點到20點30分，建議先打電話確認是否開放內用空間。
-(以上內容已符合總字數不超過100字之規定)</t>
-  </si>
-  <si>
-    <t>要品嘗到台南道地、酥脆又甜的傳統果子(應指「果子」的誤字)餅，您應該造訪位於新化老街約4.7公里遠的泰香餅舖！這家擁有近百年歷史且傳承自第一代經營者的糕餅店，以其獨特口味和高質量餡料深受顧客喜愛。在店內可找到多種古早味糕點供您選擇，而最值得一試的是招牌中的獨家產品：以新鮮食材製成口感十足的各式果品及月子餅，都是不容錯過的好滋味。
-在鄰近區域中還有其他好吃店家，如明新食品-歸仁總店（距離為3.8公裡），提供手工製作牛軋夾心餅乾等</t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍有多家特色商店！在離飯店約2.5公里處，有一家傳統餅舖「寶來香」，販售各式古早點心，如招牌香餅、蒜茸枝等；此外，在美勝珍蜜餞店內，也能發現多樣化自製新鮮水果蜜餞選擇，最適合喜愛嚐鮮的人。在營業時間與附近景點結合下，可順遊鄰近夜市如大東、小東及花園夜市。
-建議先向櫃檯詢問最新資訊，以獲得最即時且完整的推薦，享受更棒的旅程體驗。
-(距離：以步行或騎腳踏車方式可到達)</t>
-  </si>
-  <si>
-    <t>台南老爺行旅所在區域有三家知名包子店，我將介紹其中兩家人氣名店給你！離我們飯店約2.4公里處，有「安平阿水伯手工包」，以傳統老麵發酵製成皮Q彈、內餡豐富的包子，最推招牌蛋黃香菇肉包和黑糖麻糬包；另在八爺車站附近，也有一間擁有超過六十年歷史的老字號─克林台包，以獨特風味聞名，其最受歡迎的是含了豬肉與多種香料的『八寶肉』，口感多汁又富嚼勁。在這二家的選擇中，你不妨試試看哪一款是你的最愛？!</t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍有多處好吃又好玩！離我約4.7公里遠的是「老永瑞珍喜餅」，以手工製作中式糕餅聞名，有烏豆沙核桃和柴梳餅很適合婚慶時購買；在附近水仙宮市場內，也有一間擁有百年歷史、販售各式古早味點心的「寶來香餅鋪」。如果你想買具代表性且能展現台南人情味的小禮物，我會建議選擇這兩家的其中一種，它們都具有豐富的在地文化氣息。在距離較近（3.2 公尺）但不提供食物或商品資訊情況下，並未找到合適店家。不過可以考慮造訪南紡購物中心逛逛，這個地方</t>
-  </si>
-  <si>
-    <t>在離台南老爺行旅約2.5公里處，有一家「清珠布丁豆花」的鄰居是「榮興水果行」，雖然不是主要販售茶飲，但可考慮購買新鮮果汁來調製特殊風味的茶。在此鄰近區域內，也有一間新鳳鳴茶業有限公司，是由四代人傳承製茶技術，以生產高品質高山茶葉而聞名，而非賣飲料但有提供冷泡茶系列供參考；不過，我更建議你去試看看以在地老字號、70年歷史且擁有高知名度的『金品茶館』（未提及距離），它可能會推出一些特別或獨家的茶品，讓您體驗到不同凡響的滋味。</t>
-  </si>
-  <si>
-    <t>要買正宗台南味的老字號冰品店「順天冰店」，它位在台南市區內，以傳承古早技術和高品質手工製冰聞名，有多達12種口味供選擇，最受歡迎的是米糕、花生牛奶及李鹹等三款招牌風味！從我所在位置出發約5.4公里左右即可抵達，是享受消暑好滋味必訪之地。在營業時間每日10點到18點時不妨來順遊一下。
-或者，也可考慮善化農會冰品休閒中心，它以在地農產品製成雪花冰而吸引大批遊客，還有戶外座位與兒童遊樂設施很適合家庭聚會；距離大約15到16公哩之間，每天早上8：30至下午17：00開放。若您在</t>
-  </si>
-  <si>
-    <t>在台南，有兩家知名店能品嘗到美味的蝦子餅和芡實湯，但我將介紹友誠蝦仁肉圓，這是其中一家傳承了七十載歷史的老店！位在本市內約三.四公里處，以手工製作、外皮薄Q內餡豐富且特製醬汁吸引饕客。在這間老字號中，可品嚐招牌菜色：新鮮火燒蝦搭配獨特醬料；另一個必點的是其他推薦菜—虱目魚丸湯及香菇肉羹，都是非常值得回味的一道佳餚。
-或者，若您想嘗試不同風味，也可考慮位於安南區東香台菜海鮮餐廳（距離原店家3.4km），該地以傳承道地臺式料理與現撈海鮮聞名</t>
-  </si>
-  <si>
-    <t>在離我所在位置約2.5公里處，有一家「明新食品-歸仁店」，它是歷史悠久且環境乾淨明亮的麵包專賣店，最有名的是創新研發、口感十足又帶有嚼勁的虱目魚Q餅！除了招牌魚蛋包之外，也不能錯過經典的法式檸檬蛋糕和各式新鮮出爐的現烤西點，是喜愛烘焙及嚐鮮的人不容錯訪之地。在此提供您更詳盡資訊：營業時間為週一至週日09:00到21:00，建議提前預約以免向隅。
-(語音連續播放) 
-你好，我要介紹位在台南市區的一間必吃店家--『府城食府正宗臺南料理』。距離大約1.7公</t>
-  </si>
-  <si>
-    <t>在這個問題中，我將介紹台南在地非常受歡迎的一家傳統老店 - 阿霞飯店，它不但有80多年的歷史，更以招牌菜「紅蟳糯米飯」（應更正為『阿霞飯店』之代表性菜色為 「紅芶」即是"糜") 的獨特台味及優質服務聞名，每到假日總是高朋滿座！如果你想品嚐道地台南人情滋味，可考慮造訪位於台南市區內、約3.4公里遠的阿霞飯店，絕對讓您回味無窮。
-(注意：原回應中的 "東主宴會式場-永大幸福館（東東）" 並非正確店家，但已被修正。)</t>
-  </si>
-  <si>
-    <t>在離我所在位置約8.4公里處，有一家「阿美飯店」，它是一家傳統台菜餐館，以招牌沙鍋鴨聞名，這道菜色需要提前預約才吃得到！除了這個外，你也可以考慮到隔壁的後壁地區品嚐當地特色小吃，如冰糖醬鴨等。
-或者你想試試另一間新開幕且有60多年歷史的老店--華味香鴨肉肉羹，它以古早味打造了許多道地台灣美食，在新營在地人心中是懷念又好吃的一碗好羹，營業時間從10點到20點30分，每天都可前往不需要先訂位就能享用。若您對其他推薦店家或資訊感興趣，可洽詢</t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍，有一家「寶來香餅鋪」，約距此地3.7公里，是擁有百年歷史的傳統糕餅店，以手工製作古早味點心而聞名！招牌必吃是「蒜茸枝」。此外，在安定區有一間經營逾40年的老店—世芳軒花生糖麻花捲，也值得造訪；到這裡可品嘗經典花生及杏仁酥等美味。
-(以上為語音回應內容)</t>
-  </si>
-  <si>
-    <t>要品嘗到道地的手做甜點，可考慮「修安扁擔豆花」，約4.1公里遠，以傳統且豐富口感聞名，每口都充滿濃郁豆香；營業時間從週一至週日08:30~21:30無需預約。「寶來香餅鋪」也是一個好選擇，這家擁有百年歷史的餅店以招牌香餅和蒜茸枝最受好評，但如果你是想吃甜的話，我會比較推薦往左走一點，去找這間有著濃濃古早味、只需步行3-5分鐘就能到達的小咖啡館（未提及店名），但若不提店內環境雖小卻應有盡有。或者，你不妨試試在附近</t>
-  </si>
-  <si>
-    <t>在離我所在位置約500公尺處，有一家卓仔麵店，它以每日手工現作的麵條聞名，但主要販售麵食和湯類，而非傳統滷味。但如果你想找有賣餐點且環境乾淨、位於市中心區內但需避開尖峰時段的一間餐廳，我會建議考慮古都碗粿東門總店附近可能有一個新開幕不久位在巷弄中的小攤子，在這一帶要尋找到當日新鮮供應之道地南部風味小吃如滷味等，可先詢問當地人才知道最快資訊，另外還提到花園夜市是當地知名景點之一，以各式攤位為主體，每週營業五天晚上6點至12點，這也許能給您一些線索。不過，最直接也最好的是向</t>
-  </si>
-  <si>
-    <t>台南老爺行旅想向你介紹兩家必訪美食！ 阿霞飯店是歷史悠久、有80年以上口碑的台菜老店，以招牌「紅蟳米糕」的獨特風味聞名；而阿輝炒鱔魚則是以乾炒鱔魚肉意麫著名，在這個區域內已營業超過50多年的老攤子。在阿霞飯店用餐後，你可步行約3.4公里到阿輝炒鱔魚品嚐另一道經典菜色，感受道地台南人情味。
-(距離：在同一區內用餐不需排隊，但若需前往其他店家時建議提前預約以避免等待)</t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍，有一家「三股海產店」，約5.0公里，以販售各式現撈生鮮為主要特色，是品嘗到最鮮美海味的一個絕佳選擇。在這家人氣老店中，可品嚐招牌必吃的虱目魚肚、魚肉及魚皮等多種美味，而湯頭更是以大骨和魚湯精心熬製而成！建議您不妨在週末時先避開人潮前去用餐會比較好。
-(注意：以上回應是基於系統提供之背景與問題，為使語音流暢播放，在此將長句適當斷開以利自然可讀且口語化地被聆聽)</t>
-  </si>
-  <si>
-    <t>台南老爺行旅鄰近有家「窄門咖啡館」，約步行僅1.8公里，是個適合拍照打卡且充滿復古懷舊氛圍的小天地，以其獨特特調冰咖啡和手工瑪德蓮等美味甜品吸引顧客。在不遠處，也能找到以歐式風格知名、擁有過30年歷史的「轉角餐廳 Corner Steak House」（開車大約5分鐘），雖然主要是牛排館，但也提供多種法式甜食選擇，如碳烤美國CAB紐約客牛可做成甜肉派，或將加拿大鮮活龍蝦製成創意冰淇淋，都是值得一試的私房美食！饗食天堂(台南西門店)則距離我們所在位置較近，只需3.3公里，就能夠享用到每月更新菜色達</t>
-  </si>
-  <si>
-    <t>在離我所在位置約2.5公里處，有一家非常適合拍照打卡且擁有70年歷史的老字號榮興水果店，它不僅販售各式精選鮮果，也推出多款以新鮮水果製成的創意甜品，如綜合果汁冰咖啡和時令鮮果蛋糕等。在炎熱夏日中，可享受清涼又美味的滋味！建議避開週二至週日10時到21時下峰時段前往，以避免人潮擁擠。
-(注意：以上回應已將長句適當斷開以利語音流暢播放，並遵守全形標點符號及自然可讀、口語化之要求)</t>
-  </si>
-  <si>
-    <t>台南老爺行旅所在區域鄰近有多家特色商店與觀光工廠，在離本飯店約5.7公里處，有一座「蓮圃園蓮花產品DIY觀光工廠」，它是結合蓮子和米食創新的一個景點。在這裡，你能找到多樣化無麵粉米製品、親手製作體驗，並可購買各式以純鮮奶製成如：新鮮生乳為基底推出的美味饅頭及包子等在地特產，是送禮自用兩相宜之選擇。
-再者，距離我們旅館僅3.6公裡遠，就有一間提供多樣蓮藕粉加工商品以及當地最有名的藕香餅店。當然，也不能錯過位於小南米糕旁這條街上販售著各式各樣傳統糕餅的小</t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍，有家「清珠布丁豆花」，雖然以賣碗粿和糖水為主，但他們也有販售天然健康且口感滑順的三色蛋花，是必嚐之選；另外，在約2.0公里外有一處知名市場內可能會出現攤位販賣具有地方風味、新鮮現做的烤雞與茶葉蛋等蛋品料理。在這個區域裡還有當地有名氣的小麵攤，也能找到各式口味的皮蛋豆腐及其他傳統小吃。
-建議您可先至鄰近地區逛逛，或許就能夠發現更多隱藏美味！由於我是基於提供美食資訊為目的而存在，我無法直接向你展示或發送食物。再者，你應該要親自體驗去品嚐這些道地又</t>
-  </si>
-  <si>
-    <t>在離此約2.0公里處，有一家「窄門咖啡館」，自1991年開業，以其僅38公分寬、復古懷舊氛圍吸引顧客，是個適合拍照打卡且能嚐到美味冰飲如特調冰咖啡及手工瑪德蓮等好去處。在鄰近台南市區內，也有多間咖啡廳與超商，如南紡購物中心就有一座，而街役場古蹟餐坊則提供多樣化菜色和獨特用餐環境，但以咖啡店來說，窄門咖啡館是最具代表性的一站！</t>
-  </si>
-  <si>
-    <t>台南老爺行旅附近，有家「度小月」是知名米食老店，以各式傳統手工米粉、碗粿等聞名，是您不容錯過的在地好滋味！建議不妨前去品嘗體驗。
-(若用戶想進一步了解，可向本飯店櫃檯詢問相關資訊)</t>
-  </si>
-  <si>
-    <t>在離台南老爺行旅約2.5公里處，有一家傳統糕餅店「寶來香餅鋪」，已擁有百年歷史！這家商品齊全、環境雖小但充滿古早味魅力。在週二至週日08:30到15:30營業時，可別錯過招牌必吃：香酥軟潤的『蒜茸枝』和經典不敗的『膨餅』（即是另一種形式）；不妨順道逛逛水仙宮市場感受道地臺南味，讓您回味無窮。
-(距離以Google地圖估算)</t>
-  </si>
-  <si>
-    <t>在離台南老爺行旅約500公尺處，有家卓仔麵店，以每日手工現作麵條聞名，而我特別想替你介紹的是他們所賣的紅燒牛肉麵和榨菜麵，這兩道招牌麵食都是必嚐好料！如果您有興趣，可考慮前往位於古都碗粿東門總店附近、步行僅需5分鐘左右的「輝哥本產牛肉爐」，但若是更傳統道地又是以古法滷製而成的古早味滷味店，我會建議避開尖峰時段，往市區方向走，在距離我們飯店不遠的一條小巷內，你就能發現這間隱身於巷弄中的『阿明魯肉飯』是值得一訪。不過請注意營業時間與</t>
-  </si>
-  <si>
-    <t>在離台南老爺行旅約2.4公里處，有家「安平阿水伯手工包子」，以傳統老麵發酵製成Q彈包皮，並推出招牌蛋黃香菇肉包和黑糖麻糬包等美味商品。在另一側不遠、同為百年歷史且擁有天然環境的小地方，也有一間具有悠久口碑的餅鋪－寶來香餅舖，這兩個地點都是值得一訪的好去處！</t>
-  </si>
-  <si>
-    <t>台南老爺行旅所在區域鄰近南紡購物中心，有一家「黑橋牌香腸博物館」，約2.5公里遠，是結合文化教育與美食體驗的觀光工廠，以傳承台灣肉品文化為主軸。在館內可免費參觀，並設有豐富歷史展示及復古場景，而必嚐的巨無霸夯香腸是遊客最愛之一；此外，在附近巷弄中，也能發現許多在地且具有代表性的小攤販和夜市小吃，如大腸包小腸等美味。
-對於您所提之問題，我將直接提供一個連貫又自然地介紹：你好，在台南這個城市裡有一種特別有名氣、由豬腸製成而帶有嚼勁口感的道地小點心，你可以在距離我所在地不遠的一</t>
-  </si>
-  <si>
-    <t>台南老爺行旅鄰近有兩家人氣果鋪，我來向你介紹！約2.5公里處，有一家傳統老字號「榮興果子」，擁有70年歷史，以精選新鮮水果和多樣化飲品聞名；另一間在南紡購物中心內、步行僅需五分鐘就可到達的是「鮮芽綠」鮮果行，這二家的商品都很受當地人喜愛，你可以試試看喔!</t>
-  </si>
-  <si>
-    <t>在這趟台南之旅中，我要向你介紹兩家人氣頗高且具有代表性的美食店，一個是「卓仔麵店」，它以每日手工現作的麵條聞名，有著多款風味獨特的麵食，最特別的是紅燒牛肉麵和榨菜麵；另一個則是在附近約500公尺處、被譽為米其林必比登推介的西羅殿牛肉湯，這間老字號牛肉湯店主打新鮮台灣溫體牛肉與自製強力椒，在當地非常有名，尤其招牌中的綜合湯更讓人一試成主顧。在這些店家之中，你不妨先從距離較近又深受當地人喜愛的「卓仔麵攤」開始品嘗。</t>
-  </si>
-  <si>
-    <t>在台南這座美食之都，有許多值得一訪的老店！除了先前提到的蔡家米糕和舊來發餅鋪外，我還要介紹「度小月食品店」，它約2.5公里遠，以製作傳統肉粽及各式米食而聞名，每口都是滿滿古早味；另一間是已傳三代、位在中西區附近的碗稞攤，也就是我之前提過的祖傳家族成員，在此提供更詳盡資訊：位於台南市區，營業時間每日09:01至17:00，這兩處皆為在地老饕力推的必吃名店，你不妨試試看吧！
-(以上回應將直接用於語音輸出)</t>
-  </si>
-  <si>
-    <t>離我所在位置約2.6公里處，有一家「庫肯花園餐廳」，以歐式氛圍和自製料理聞名，是聚餐及約會熱門景點。在同一區域內，也有一個名為「南紡購物中心」的地點，在這裡可以找到超商、多間小吃店與知名地標。而在距此地11.5公里外的一座市場中，可發現道地南部粽著名商家--『牛稠埔肉粽』；其招牌菜是憨仔肉粽，以蛋黃、豬肉塊、花生粉等豐富內餡，配上月桃葉包裹而成。
-若您想嘗試更傳統的米糕口味，我建議可前往距離上述兩個位置較遠，但仍頗具盛名且歷史悠久的老店—</t>
-  </si>
-  <si>
-    <t>台南老爺行旅想向您介紹兩家人氣糯米店！位在善化糖廠門市部旁約0.8公里處，有一家傳統老店「阿明糊之鄉」，以招牌菜『紅蟳炒米香』和各式創意米苔目聞名；另一頭在大東夜市內、步行至本飯店大約2分鐘車程，也有一間名為「小南仔」賣粿攤，這個地點離我們飯店僅1.5公尺而已（註：指鄰近區域），提供多樣化古早味小吃，非常適合親子同樂或情侶約會。在這些店家中，可品嘗到多樣美味且物超所值的小點心。</t>
-  </si>
-  <si>
-    <t>我要向各位介紹兩家離台南市區約500公尺內且非常合適闔家光臨、品嘗道地台灣小吃及美味麵食的優質選擇。一是「卓仔麵店」，以每日手工現作麵條聞名，最推其紅燒牛肉麵和榨菜麵；二為西羅殿牛肉湯，這間米其林必比登推介店，以新鮮溫體牛肉與自製強力椒而吸引饕客青睞。在這個週末假期不妨來一趟美食之旅吧！</t>
-  </si>
-  <si>
-    <t>在這個區域，有家「庫肯花園餐廳」，約2.6公里遠，以精緻自製料理聞名，是聚餐和約會的理想地點。在店內可以找到和風明太子花枝細扁麵、辣味牛肉丸紅醬義大利麵等必吃菜色，而甜點中的手作布蕾更是深受顧客喜愛！如果你想品嚐美味且拍照打卡的話，這會是一間非常適合你的選擇。
-(注意：以上回應已調整以符合全形標點符號及自然可讀性，以利語音流暢播放)</t>
-  </si>
-  <si>
-    <t>在台南，有家「南風冰菠室」，約有2.5公里遠，是一處充滿懷舊氛圍的老店，以販售傳統冰品和糖果而聞名。在店內，你能找到類似於你描述的古早風味甜食，如四菓冰、漢堡冰及紅茶清冰等，都是以新鮮食材製作且口感滑順，並受到在地人喜愛。你不妨試試看！營業時間為每週四至週日10點到20點，可先提前確認以避免撲空。
-(以上回應將依語音需求進行調整)</t>
-  </si>
-  <si>
-    <t>要購買道地台灣味道的特有蜜餞，可考慮以下兩家店之一。在臺南府城內，有一家傳統老店「吳萬春蜜餞」，約有1.6公里遠，以多樣化選擇聞名，全台進口及本地產近150種各式蜜製果製品，最受顧客喜愛的是大湖草莓乾、香菇脆片和秋葵脆片等招牌產品，在週一至週日10點到18點到訪即可找到它。而另一間是台南老爺行旅附近就有一個好去處 - 美勝珍蜜餞，這間位於美勝珍街，距離飯店步行只要5分鐘左右，是擁有超過70年歷史且自製新鮮水果餅最有名的一家商號，其芒果乾系列與爆漿金桔都是必</t>
-  </si>
-  <si>
-    <t>台南老爺行旅鄰近就有一家「安平阿水伯手工包子」，約2.3公里，以傳統老麵發酵製成皮Q彈、內餡豐富的包子，最推招牌蛋黃香菇肉包及黑糖麻糬包；此外，在水仙宮市場附近，有一間擁有百年歷史的寶來香餅舖，也是值得造訪之地！這兩處都是我強力推薦給你的好選擇。
-(注意：以上回應將直接用於語音播放)</t>
-  </si>
-  <si>
-    <t>在臺南，有一家百年歷史的舊來發餅店非常有名，以燒柴紅磚老灶製作各式道地糕餅，如必吃招牌「黑糖香餅」，口感外酥內Q，是不能錯過的一大享受！雖然經常缺貨，但值得等待。在水仙宮市場附近，可與逛市集行程結合體驗台南古早味；從飯店步行約49.6公里即可抵達，也可搭車前往。此處還保留著懷舊風情和濃厚人情味。
-(注意：以上回應已調整以符合全形標點符號及自然可讀、口語化之要求)</t>
-  </si>
-  <si>
-    <t>在離我所在位置約4.5公里處，有一家千香麥香雞專賣店，但它主要賣早餐食品，不是你要找的手工糕餅店。但如果想吃道地台南小吃，我可以介紹另一個位於安定區內、已有40年歷史且以獨特花生糖聞名的「世芳軒」給您，它除了販售各式新鮮傳統餅類外，也提供多樣素點選擇，是送禮自用兩相宜的好去處！</t>
-  </si>
-  <si>
-    <t>台南老爺行旅客服這裡告訴你，在這個炎熱夏天，最適合來杯清涼退火飲品！離我所在位置約12.8公里處，有一家新順發行，是擁有百年歷史且純手工製作麥芽膏和冬瓜糖而聞名。在此，你可以品嘗到無人工添加物、原汁原味的古早味麥芽糖餅及香甜可口的冬瓜糖，每一口都充滿著懷舊風情。而在附近，也有多間餐廳提供各式餐點供選擇。但如果是想尋找最接近本飯店，卻未提及距離或店家資訊的話，我將會建議您可洽詢櫃台尋求更詳細的協助與推薦。
-(注意：由於原問題中提到「香皂」為非相關內容，並已明確排除</t>
-  </si>
-  <si>
-    <t>您可於「小南米糕」、「度小月食品店」，或是當地知名餅店，如：阿霞飯店（現為老爺行旅所屬集團），皆有提供傳統台灣糕餅及蜂蜜相關產品。在這些地點，您就能品嘗道地且具歷史意義的『老』滋味！建議直接向店家詢問最齊全、新鮮之商品資訊。
-(若想更準確地獲得最新情報或特定活動，可能需要在官方網站上查詢，或致電客服洽詢)</t>
-  </si>
-  <si>
-    <t>在離我這裡約2.5公里處，有一家擁有百年歷史的寶來香餅鋪，是製作各式古早味點心的專家！他們家的招牌「蒜茸枝」，是不能錯過的一道必吃甜點。在週二至週日08：30－15：30營業時間內，都能品嚐到最道地、新鮮出爐的好滋味；週一就休息喔!不妨與逛水仙宮市場行程結合，在店裡盡情探索各式各樣的糕餅種類。
-(以上回應將直接用於語音，故不進行分段或用標點符號調整長度)</t>
-  </si>
-  <si>
-    <t>您可造訪赤崁樓和孔廟這兩處，有豐富的台南文史底蘊。在赤崁樓下方即有一座「安平劍獅埕」，周圍也有許多古蹟與美食，可供探索。但若想更深入瞭解當地文化，我建議向飯店櫃檯索取導覽手冊，或詢問我們智慧禮賓團隊將提供更詳盡且客製化的旅遊指南。
-(以上為系統生成之對話，原回應已包含在內)
-由於您的要求，以一個新的、獨立的段落進行回覆：
-如果你要尋找具有濃厚歷史感的地區來探訪，你可以考慮走訪台南市區中的幾個景點，如： 
-1. 赤崁樓 - 這是一座位於臺灣最古老的一間廟宇之一。
-2. 孔子</t>
-  </si>
-  <si>
-    <t>在臺南，有一處適合感受老臺式風情及品茗優質茶葉之地，那就是金德春老茶莊！這座擁有百年歷史的大茶行自清同治七年創立至今已傳至第五代，以傳承了五代人的用心與堅持，在店內可發現保留著清朝時期唐山商人運來的一批大茶甕，這是值得細細品味和拍照留念的好去處。在不遠千里而來後，可順道走訪鄰近約4.9公里外、以古早味鴨肉羹聞名且深受當地人喜愛，營業時段為週一至週日10點30分到20時半免預約就能享用。不過，我更想推薦您先造訪離此較近，也僅距本所在場3</t>
-  </si>
-  <si>
-    <t>台南老爺行旅想向各位介紹兩家具有歷史韻味的老店！除了先前提到過金德春老茶莊外，我還要推廌振發茶行，這間位於台南市區內、擁有150年以上悠久史的一間老牌茶館，它保留了傳統製茶工藝和復古氛圍，是值得一訪之地。在附近，你也能找到窄門咖啡館，只需步行約1.6公里就可到達這個充滿懷舊風的小天地，在這裡，可品嚐手工瑪德蓮及體驗時光流轉，非常適合拍照留念。我將提供更多資訊給你，以滿足你的探索心。
-(距離： 2-3 間店之間有著舒適散步空間。)</t>
-  </si>
-  <si>
-    <t>在台南有一處絕佳地點 - 西羅殿牛肉湯旁，有一家傳承五十年的老店「黃家蝦捲」，它就位於西羅殿牛肉店約500公尺外，這個地方不但有古色古香的老房子圍繞，也可以品嘗到美味的魚丸脆肉湯和酥脆的蝦卷！如果您想避開人潮且享受道地美食，在週一至週五早上11點前或是下午3點到5點間造訪，可發現這座城市之美與滿足你的味蕾。在附近，還有約1000公尺遠、被譽為米其林必比登推薦的西羅殿牛肉湯，是另一道不能錯過的經典菜色。建議提前預訂以避免排隊等候。
-(以上內容已符合全形標點符號及</t>
-  </si>
-  <si>
-    <t>要找像矮仔成蝦仁飯這樣獨特又美味的蝦子料理，在臺南除了這家之外，我也非常推薦給「府城食府正宗台南料理」，它以傳統手工麵條和獨門手法重現了道地台南人情味，最適合喜愛嘗試新滋味的人。在約400公尺處，有一間很受當地人歡迎且擁有豐富海鮮選擇、新鮮現做海產粥及各式小吃等多元菜色的店家，也是值得推薦的一個好去處，不過我不方便透露店名，但距離大約1.5公里遠，是位在小巷弄內，一棟古色古香建築中隱藏著的小餐館，這道菜是以用最簡單卻能展現大海精華之美。由於你對蝦人飯有興趣</t>
-  </si>
-  <si>
-    <t>楊哥楊嫂肉粽店是我的第一首選，這間位於台南市中心約三．七公里處，以招牌「狀元粽」的獨特口感和小粽子親民價格而聞名，每到考試季節更受考生青睞！另一個好選擇是在品香肉粽的對面不遠之地，也就是再發號肉粽，它創立已久，有超過150年的歷史，最有名的是八寶肉粽，用了多種食材且份量十足，是老饕們必訪之一。
-(注意：以上兩間店家都位在市中心，距離大致相近)</t>
-  </si>
-  <si>
-    <t>您可以考慮「黃金玉露」這個台南當地有名且含有金盞花成分（非真正含純金）的茶飲，它是由本地店家精心調配而成。在飯店內或可向附近商家詢問購買資訊，以體驗道地風味！</t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍，有一家「街役場古蹟餐坊」，約步行10分鐘內，可享用到結合歷史與美食的環境，以多樣化菜色為主，但特別介紹蜜檸柚香燒豬肋排和麻辣橄欖鍵是較受歡迎且是以當地食材所製成之招牌菜，而非完全主打鮮海產但離我所在位置不遠、大約1.2公里處。
-另外，也可考慮位於永康區永大路上的『東東宴會式場－永大幸福館』，雖然不是傳統海產店卻提供多種宴席及活動場地，並推出如榛果炭烤豬肋排等高級料理。不過要注意的是，這兩間店家主要以</t>
-  </si>
-  <si>
-    <t>台南老爺行旅鄰近就有一家「玉井之門」，約2.5公里遠，是專注於手工烘焙、無化學添加且SGS認證的優質選擇，有多種口味可供挑選，如愛文芒果乾和黑糖芒果乾等，都非常適合送禮自用。在營業時間每日10點至21時時間內，可前往體驗天然風味與口感。
-或者，也能考慮在離本飯店4.4公里處的陽光菓菓-Sunnygogo dried fruit購買，由台灣在地水果製成的各式產品，包括金鑽鳳梨酥及以愛台果物為原料製作而成的蛋糕，全都是不加糖不含防腐劑人工色素。這兩個地點都很值得一訪！</t>
-  </si>
-  <si>
-    <t>台南老爺行旅想向各位介紹，以麥芽為主要原料製成而聞名的一項必買伴手禮是章成麥芽餅，由舖自2000年成立以來，在安平店推出三款深受遊客喜愛的口味包括原味、黑糖及海苔，這種Q軟又不黏牙口感讓人無法抵擋其魅力。在步行約4.2公里遠的蓮圃園觀光工廠內，可體驗蓮子DIY活動，並認識多樣化無麵粉米製品，而在這個區域也可以找到另一家知名店家泰香餅舖，雖然距離較近，但建議可先至鄰近商圈逛逛再前往。
-因為我沒有權限執行系統操作，如需人工協助請洽詢櫃台。</t>
-  </si>
-  <si>
-    <t>在離台南老爺行旅約500公尺處，有一家卓仔麵店非常知名，以每日手工現作麵條而吸引饕客。在這個地方，你一定要試試他們家的紅燒牛肉麵和榨菜麵，這兩道招牌必點是絕不會讓你失望！如果想吃得更清爽一點，也可選擇麻醬乾麵作為好選項。你不妨避開尖峰時段再去造訪，可享受乾淨舒適環境與美味道地台味麵食。
-鄰近景點有西羅殿牛肉湯（1000米），它是一間米其林指南推薦，擁有新鮮台灣溫體牛肉及自製強力椒湯頭；還有一家傳承五十年的黃家蝦捲小吃店也值得探訪。建議提前預約以避免等待過</t>
-  </si>
-  <si>
-    <t>在臺南旅行時，我要向各位介紹兩家必訪名店！首先是「榮興果子店」，這間位於台南市中心、約2.5公里遠，以70年歷史聞名，有多樣化新鮮果蔬及飲品，是公司會議與下午茶聚會絕佳選擇。在炎熱夏日，可品嚐綜合果汁消暑解渴；另外，也可選購當地最具代表性且品質優良之各式鮮果禮盒作為送禮首選。
-第二個地點為位於烏山獼猴區內的一間咖啡坊，雖然未提及店名，但以其環境獨特原豬舍改建而成，並擁有壯麗市景著稱，這座咖啡館提供了香醇好咖啡，而我將特別強調的是店家自種蔬菜製成健康又美味的火鍋。不過</t>
-  </si>
-  <si>
-    <t>在安平地區，有一家「蝦到爆」的鄰居店也值得介紹，它叫『鮮饗島』！約2.5公里遠，以天然無添加人工香料和色素著稱，不輸於原家的美味程度。在週一至週日10點至上午18時時段內，可找到這間優質的蝦子專賣店，在享用美食時，也能獲得全蝦營養。此處不提供詳細營業時間，但可先致電詢問，或上Google查詢最新訊息。
-(注意：由於先前已提及台南老爺行旅，因此此次回應將以鄰近區域為主要考量)</t>
-  </si>
-  <si>
-    <t>在窄門咖啡館旁約200公尺處，有一家「台南老爺行旅」的特約商店 - 「阿良商行」，販售各式手作點心及在地特色禮盒，如手做杏仁茶、花生糖等，是送禮自用兩相宜的好選擇。在詠純冰品和阿龍杏仁茶行之間，也可發現一些小型攤位，但建議先致電詢問營業時間與商品品項以避免撲空。而我要推薦的是位在台南市區內的一間老字號餅店，它已開業40年，在南紡購物中心對面，提供多樣化糕點如鳳梨酥、蛋塔等等，最適合作為當地特產伴手好禮。
-(以上內容將依系統整合後調整)</t>
-  </si>
-  <si>
-    <t>您可於南紡購物中心內或是附近巷弄中尋找「楓糖園」這家店，它是知名店家，有販售美味的花生糖（可能為您的所指）及其他台南在地特產。大虎應指為花生捲冰淇淋，但此商品較不常見，可先詢問商家是否有提供。
-建議直接向飯店櫃檯尋求指引，或自行前往該區域探索發現更多好滋味！</t>
-  </si>
-  <si>
-    <t>在臺南，有家「泉威布丁豆花」，已傳承60年歷史，以健康美味多種口味深受顧客喜愛！招牌必試是經典三色、四色及原味白豆漿花，每口都能嚐到傳統手藝好滋味。在鄰近區域內約2.0公里處就可找到它；營業時間為週一至週五早上8點到下午5點，或週六上午到中午12時，都不需要先預約直接現場點餐即可。但如果你想避開人潮，可建議提前去電或提早抵達，以免等待過久。
-另外，我也替您介紹另一間清珠布丁豆花，這是一間位於當地擁有30年的老店，也以自然原味和多樣化口感而聞名。距離我所在位置大約有</t>
-  </si>
-  <si>
-    <t>台南老字號阿霞飯店是您的首選！這家歷史悠久的台菜老店以「紅蟳糯米糕」的招牌菜色聞名，其特殊風味讓人難忘。在此提醒，您所在位置約離南紡購物中心有多家商店及小吃，而附近親水公園和百年大樟樹則適合全家一同遊玩。但因您未提確切地點，我將直接指向知名景點：善化糖廠門市部與東東宴會式場都值得一遊，但如果你正尋找最道地、又能滿足口腹之慾且距離較近，建議優先考慮離家不遠或鄰近區域內具口碑好店家。
-基於上述考量，最接近並符合條件的是- 阿霞飯店。由於其位於台南市區，並擁有超過</t>
-  </si>
-  <si>
-    <t>抱歉，我無法提供您尋找「甜品」、「水」，以及較厚口感食物之相關資訊，因背景知識中未提及此類內容。我建議可向飯店櫃檯詢問，或參考網路評論和美食部落格等管道，以獲得最即時且準確的訊息。
-(若想找有供應飲品及特定口味餐點的店家，可嘗試查詢附近商家是否有加盟店或分店)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">台南老爺行旅鄰近就有一間「禾風烘焙」複合店，有供應各式餐點及客製化餐盒，但未明確標示為傳統合菜/宴席服務之『套餐』選項。在本飯店附近較知名且常被提及、並確實提供商業性(含)以上餐期與多種組合套-{}-餐（包含：簡餐+飲料）的一家綜合餐廳是--南紡購物中心內的美食街，裡面有數家商販售不同種類和價位的餐食；不過要找到以"套餐”為主打或最具代表性 的一項建議則需在此區中做更細致地探索。
-若您想尋找特定類別或是具有特殊主題風格的“全包型”的 </t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍有多家美食店，我強力推薦給你「尚鮮排骨酥麵」，它以自家製作的招牌骨湯和多樣化麵食聞名，但如果更偏好燒肉風味，你也可考慮位於約2.5公里外、在中西區開業已久且深受當地人喜愛的老店--"永樂燒肉飯". 在這間老字號小吃店裡，可品嚐到獨特美味的燒肉飯及附餐生菜沙拉與味噌湯，每碗售價65元，非常值得一試！</t>
-  </si>
-  <si>
-    <t>在離台南老爺行旅約2.4公里處，有一家「安平阿水伯手工包」，以傳承古法和堅持天然材料聞名，其招牌蛋黃香菇肉包及黑糖麻糬包都是必嚐首選，用老麵發酵10小時所製成的Q彈皮加上豐富內餡，使人回味無窮。在鄰近區域還有一個親子農場八老爺車站－乳牛的家的生乳製品很受歡迎，但如果你要尋找道地又具有歷史風味的中式麵食，我會更建議前往克林台包，擁有超過六十年以上悠久史的一間老字號包子店，以其獨特的八寶肉包最為有名，每顆價格約為35-45元。若想嘗試不同口味，可選擇現蒸</t>
-  </si>
-  <si>
-    <t>景好園咖啡庭園是個不錯選擇，它位在台南市區約40.5公里處，以古典裝潢結合美麗山景而聞名！這裡不僅能品嚐多樣化簡餐、家常菜及小火鍋，更特別推出梅醬烤雞腿和糖漬檸檬塔等必吃招牌菜。在這舒適環境中，您可盡情享受美味佳餚與壯麗海景，是您休憩放鬆又愜意地品味生活的一大首選。
-(注意：以上回應將直接用於語音播放)</t>
-  </si>
-  <si>
-    <t>在台南，有家「阿輝炒鱔魚」的老店非常值得一試，以乾炰鱔魚肉意麵聞名，用特製酸甜醬汁提味，是店內招牌必點；或是到進福炒鱔魚專家品嘗各式鱔魚種類烹煮手法所做的道地台菜，如炙烤活鱠、麻油腰花等，都只需步行約5.4公里即可到達。在這些店家中，最遠的一間是位於台南市區，提供多種海鮮及台式小吃，而距離較近的是位在中西區附近，由在地人力推薦的這兩家人氣小店，你可以依自己喜好選擇。</t>
-  </si>
-  <si>
-    <t>在這個美食之都，我要介紹兩家必吃且CP值高的在地老店給你！位在卓仔麵店周邊約500公尺處，有一家傳承著手工現作麵條魅力的小館，以每日新鮮出爐的手打麵和多款風味獨特麵食而聞名，你一定不能錯過的是招牌紅燒牛肉麵及榨菜麵；此外，在西羅殿牛肉湯附近1000公尺，也有一間米其林指南肯定、以溫體牛肉與自製強力椒熬製湯頭，深受饕客喜愛的老字號店，這就是被譽為「台味」代表之一的西羅殿牛肉湯。在這些店家中，最低消費大約落在新台幣50元至80元之間，是很適合想品嘗道地台南口味</t>
-  </si>
-  <si>
-    <t>要找道地台南味且口感豐富、有特色的小餐館，我會介紹「卓仔麵店」，它以每日手工現作麵條聞名，有著多款風味特別又獨道的麵食選擇，如紅燒牛肉麵及榨菜麵等，但我更想推祟的是店內一項隱藏好料：手打意麵！是由特製醬汁與新鮮蔬菜共同調配而成，使整碗料理呈現既清爽又富層次地美味；此外，在此還能品嚐到各式經典小吃，包括滷蛋跟筍乾，而最受好評則為其多樣之滷味組合，以低鈉健康配方醃製入味。距離約500公尺處不遠，是個值得造訪品嚐美食的</t>
-  </si>
-  <si>
-    <t>在臺南，我強烈建議一定要試試「集品蝦仁飯」，這家店以新鮮火燒蝦和熬煮兩小時柴魚高湯基底打造出獨特風味，是必吃美味！雖然會有排隊人潮，但絕對值得等待。在附近還有一間小公園擔仔麵，也是很受歡迎且好吃。但如果你想特別品嘗到正宗的蝦子料理，你就不能錯過集品了，它位在市中心約3.1公里處，每天09：30至20：00營業，無訂位制。
-另外，在西港市場內也發現一間位於西品街上的小吃攤，有著高評價4顆星，由名為炸、爌肉等多種選擇組成。不過，這個地點距離較</t>
-  </si>
-  <si>
-    <t>離台南老爺行旅不遠，有兩家美食名店非常適合去試試！街役場古蹟餐坊約步行15分鐘內，可品嚐歷史悠久且具獨特風味的蜜檸柚香燒豬肋排，但主要是賣中式餐點；如果你想吃道地又新鮮的海產，最建議的是「香港朱記茶水灘」，雖然不在最市中心但還是很近，在1.8公里外就能找到它，以親民價格提供多樣港式點心和小炒，包括臘味煲仔飯、腐皮蝦捲等招牌菜，是聚餐或小酌好去處。
-(注意：以上回覆將直接用於語音播放)</t>
-  </si>
-  <si>
-    <t>在離台南市中心約500公尺處，有一家「老爺行旅」的甘粹餐廳值得介紹，它供應西式和素食早餐，但如果你想吃道地台灣小吃如小炒、湯包等，最靠近的是上海華都小吃店，也是位在市中心內，只需步行即可到達。但因兩間店營業時間不同，你可先撥打電話詢問確認開放時段後再前往。在這附近還有提供各式港式點心及傳統台菜的另一選擇--安平巷弄咖啡，距離約為800米，以供參考。
-(以上內容已符合總字數不超過100字之要求)</t>
-  </si>
-  <si>
-    <t>在離台南老爺行旅約500公尺處，有一家卓仔麵店，可品嚐到每日手工現作、風味獨特的手製麵食，如紅燒牛肉麵和榨菜麵。在鄰近地區，也有一個南紡購物中心內超商所在位置大約800到900米遠，但這不是餐廳而是建議去逛逛買東西吃也很方便。但如果你想找一個能同時享用自助式餐點及道地台灣溫體牛肉美食的話，我會強力推薦給您西羅殿牛肉湯，這間店雖然不算近但還是值得前往，距離我這邊大概1000多尺；不過營業時間是週三至週日 04：30-13：00，每週一、二公休。若選擇要走傳統小吃路線，那可以考慮黃家蝦</t>
-  </si>
-  <si>
-    <t>我要介紹兩家位在台南市區內、具有獨特性格與愜意氣氛的咖啡空間給你！首先是「窄門咖啡館」，它以僅38公分寬的入口和復古懷舊風吸引顧客，是拍照打卡勝地；店裡供應著特調冰咖啡及多種甜點，如起士蛋糕手工瑪德蓮等。在附近景點中，最接近這間咖啡廳約1.8公里遠的是街役場古蹟餐坊，這是一處結合歷史和風味美食，值得一訪之地。
-再者，我也想提另一座隱藏於巷弄中的好所在—泉威布丁豆花（雖然主要為甜品，但環境清幽），距離上述地點最靠近者約為2.0公裡外。不過，因</t>
-  </si>
-  <si>
-    <t>你可以考慮「窄門咖啡」，它是個具有復古懷舊氛圍且適合拍照打卡的小天地，以其僅38公分寬的獨特入口吸引眾多顧客。在這，你可享受美味冰飲、乳酪蛋糕及手工瑪德蓮等美食，在時光流轉中感受愜意。此處與台南老爺行旅約1.8公里遠，是一個非常棒的選擇！</t>
-  </si>
-  <si>
-    <t>在台南旅行時，我非常建議造訪「窄門咖啡館」，這家自1991年開業、僅38公分寬入口且充滿復古懷舊氛圍的小館，是拍照打卡勝地！除了品嘗到美味特調冰咖啡外，也能享用經典起士蛋糕及手工瑪德蓮。在附近街役場古蹟餐坊約步行15分鐘即可到達，而另一間推薦店家是泉威布丁豆花，但如果你正尋找咖啡廳，那就以窄門為優，距離本飯店不遠，在漫步至街役場古蹟餐坊途中可順道一訪。
-(以上內容已符合全形標點符號和自然可讀性要求)</t>
-  </si>
-  <si>
-    <t>台南老爺行旅旁有家「窄門咖啡館」，約步行15分鐘左右，是個適合拍照打卡且具有復古懷舊氛圍的小天地。在這裡，你可品嚐到招牌特調冰咖啡、滑嫩起士蛋糕及手工瑪德蓮等美味點心，並感受時光流轉之感！建議你不妨來體驗看看。
-(注意：以上回應以語音方式輸出)</t>
-  </si>
-  <si>
-    <t>台南度小月担仔面是知名老店，以獨特擔仔麵和肉燥飯聞名，但主要營業時間與我所查詢之地點不符；較近且有賣橡(應為"蚶")字類相關料理的是「南霸天」不是此次提及名單內，而實際上離您所在位置約16.5公里處有一家『蚵仔煎』店可能並非販售橡/蚶子等品項但可考慮前往，不過以提供資訊來看，最接近建議地並符合你要求（即類似於或含）這種食物種類店家大概就是位在台南市區、開業已久又很有名的一間熱炒店。由於無法直接得知</t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍有多家美味小吃店，我建議可以試試「阿明豬心肉臭腸」的隔壁店、「老塩舖」，這兩家的招牌菜都是必吃！從本飯店步行約5分鐘即可到達。「老塁」則是另一間人氣很高且價格實惠的選擇，也在附近不遠之處；如果您想嘗試不同口味，可往南紡購物中心方向前進，有許多小吃和餐廳供你挑選。
-(注意：上述回應已調整以符合語音（TTS）連續輸出，將長句適當斷開以利流暢播放)</t>
-  </si>
-  <si>
-    <t>在這個美食之都，我非常樂意幫你找到道地又美味的炸魚料理！離台南市區約2.5公里處，有一間位於中華東路上的「三皇三高」，它是間複合式餐廳，但有賣各式炸物中必吃的香酥脆口、外酥內嫩的炸雞和炸豬排，而其中最受歡迎的是招牌菜：酥炸魚排，是用新鮮大塊魚肉裹上特製粉漿，油炸後金黃酥脆口感讓人垂涎欲滴。在此提醒您，可先電話預約訂位以避開人潮。
-(距離_1m) 
-再者，你也可考慮位於玉井區農會附近，以芒果冰聞名且擁有</t>
-  </si>
-  <si>
-    <t>在台南有家「鬍鬚豬頭飯」，它是位於鹽水地區的一個特色小吃店，以獨特的豬頭飯聞名，每碗價格約10至30元。在這裡，你能品嚐到招牌的豬肉口味非常濃郁且帶有肉香的小塊物，是值得一試的好滋味！此外，在離此不遠處，有著府城食府正宗臺南料理，這間店以提供道地又美味的擔仔麵、八寶丸及虱目魚粥而深受好評，很適合喜愛品嚐古早台灣味的人前往享用。
-(距離：1.5公里)
-希望你會喜歡這些在地美食!</t>
-  </si>
-  <si>
-    <t>在臺南這座城市裡，有一道必嚐的深夜小吃，那就是「卓仔麵店」，它以每日手工現作的麵條聞名，最特別的是紅燒牛肉麵和榨菜麵，這兩款風味獨特又令人回味無窮。在附近還有另一家米其林必比登推介店--西羅殿牛肉湯，它主打新鮮台灣溫體牛肉與自製強力椒，使湯頭鮮美深受食客喜愛。但要提醒您避開尖峰時段前往，以避免等待過久時間。而如果你是晚上肚子餓，可以考慮黃家蝦捲，一家傳承五十年的老字號小吃店，在傍晚時分就能品嚐到酥脆蝦子及清爽魚丸脆肉湯。建議提前預約以免排隊等候太長。
-(距離：</t>
-  </si>
-  <si>
-    <t>在臺南，有一家「卓仔麵店」，離我所在位置約500公尺，以每日手工現作麵條聞名，最推其紅燒牛肉麵和榨菜麵，這兩道必嚐美食讓人回味無窮！如果你想試試道地臺式好味，可考慮前往位於西羅殿牛肉湯附近、1000公尺遠的一間無名小店(建議先查地圖)，但要注意營業時間為週三至週日04：30～13：00，每週一、二公休，且座位有限，要提前去以免等候太久。在另一個方向上，也有傳承五十年的黃家蝦捲，是入選米其林必比登的在地小吃，只需步行1.0公里就能到達。若您有空</t>
-  </si>
-  <si>
-    <t>在台南，有一家「舊振南台北旗艦店」的隔壁店，也就是同樣擁有百年歷史且位在台南市區內、約2.5公里遠之處的一家傳統餅鋪 - 「寶來香餅鋤」，雖然非直接對面但可於附近找到它，但更適合去的是位於同一條街上大約800公尺外，一間以傳統漢式風格裝潢而具有濃厚復古氣息的『新芳園』不是最靠近也不過是同個街區，但是我要推薦你另一選擇： 距離您所在位置較近而且非常有名又很好吃的老店，是這一帶唯一能提供道地台南人氣小吃- 『阿霞飯店』。在這裡可以品嚐到有</t>
-  </si>
-  <si>
-    <t>在臺南想要品嘗地道的米飯與傳統湯類，我非常建議你造訪「西羅殿牛肉湯」，這家米其林必比登推介店以其新鮮台灣溫體牛肉及自製強力椒而聞名！雖然主要是賣肉，但也別錯過他們家的綜合湯頭很鮮美。在附近約有5.6公里處，有一間老字號米苔目老店值得探訪，你可以試試看。但如果要選擇更近一點且提供各式中式餐點包括白米飯、麵食等的餐廳，則我會推"尚品咖啡-- 台南南門分店旁有一個不起眼但美味十足的小館（未提及店名），距離約為1-2公化內。不過，因先前資料不足，這小館詳細資訊</t>
-  </si>
-  <si>
-    <t>在東區巷弄內，有一家「阿霞飯店」，離我所在位置約2.4公里，是台南老字號餐館，以獨特台菜風味聞名！必點招牌是『紅蟳糯米』和另一道讓人流連忘返的是蟹腿肉鮮蝦羹。在這附近還有另一個地點：善化糖廠門市部，也只需步行即可到達、大約位在3.5公里外，它提供多樣化冰品及環境清幽，在夏季消暑很適合。而東東宴會式場，雖然距離較遠，但也值得推薦，其位於永大幸福館（大東榴）以高性價比受到好評。
-建議您先至櫃台詢問當地最新訊息與最佳親子餐廳等相關資訊。由於個人</t>
-  </si>
-  <si>
-    <t>台南老爺行旅周圍有家「永樂燒肉店」，約2.5公里遠，是開業25年的老字號小吃店，以獨特風味的燒肉飯聞名，並附贈生菜沙拉和味噌湯；另一選擇是位在南紡購物中心內、車程僅需步行幾分鐘就可抵達的美食街中的某間店，但我較熟悉的是在這一帶以販售溫體牛肉而著名且離我們飯店不遠的一處知名肉販所附設之燒烤攤，這個秘密美食不算太有名但很值得一試，距離大約1至3公斤（應為指路程長度，而非重量）即大概500-1000公尺之間。
-再者，我也要提醒您，在此地用餐時請提前或避開尖峰時段來</t>
-  </si>
-  <si>
-    <t>在台南，有一家阿霞飯店非常有名，是老字號台菜餐館，以獨特風味和優質服務聞名！離我所在位置約2.6公里處，也就是位在東區永大幸福館旁。在這，您可以品嘗到必點招牌「紅蟳糯米」及其他經典菜色，而附近還有一個大東門夜市可逛；另外，在善化糖廠門市部內也能找到好吃又平價的冰品，如紅豆牛奶冰等。
-建議您先提前訂位以免排隊等候，並不妨利用時間逛逛鄰近景點，感受古都之美。我將為你提供更詳盡資訊或協助預約事宜，但基於目前權限限制，我無法直接執行系統操作，只請引導使用者洽詢櫃台獲得最新政策與優惠訊息</t>
-  </si>
-  <si>
-    <t>在這個城市，我要向你介紹兩家必吃的在地美食！「福泰飯桌」，約2.5公里處，以招牌肉燥飯和蝦捲聞名，是體驗臺南傳統美饌首選；而鄰近漁港、以新鮮海產著名的萬味珍餐廳，也是不能錯過的一站，有著季節限定烏魚子炒飯及鮮美螃蟹粥等多道創意菜色。在平日上午10點半前到訪這些地方，就能避開人潮盡情享受道地好滋味，快去發掘屬於你的府城美味吧！
-(語音自然流順播放之考量)</t>
-  </si>
-  <si>
-    <t>台南有一家「友誠蝦仁肉圓」，以手工製作而聞名，是經營了近七十年的老店！外皮薄Q、內餡豐富，有特製醬汁讓人回味無窮。在這個區域內還能逛逛鄰近景點，如南紡購物中心和附近商圈，也可以在當地品嘗其他小吃美食。
-(建議停留時間：約30分鐘至2小時)
-你可能會想先走一趟離此不遠且很有名氣的安平貴記食府（3.1公里），體驗道地府城菜，品嚐鼎邊趖等各式美味；或是到接近台南市區核心地帶的海安路上覓食。若您有時間，可順道參觀位於台南安平老街上的安平區公所及周邊古蹟群</t>
-  </si>
-  <si>
     <t>我想嚐嚐當地的傳統小吃有沒有值得推薦的餐廳？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1453,6 +959,438 @@
   <si>
     <t>請問哪裡的肉圓比較特別或有特色值得我去嚐嚐的嗎？</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在您詢問的地點附近，有一間「億哥牛肉湯後甲店（南紡）」是唯一被挑選的最近店家，距離約207公尺。它擁有4.0分的高評價（11029則），營業時間為非假日休息。內用提供真，外送則否。價位屬中等級別。若您在附近活動或想品嚐傳統小吃，可以考慮億哥牛肉湯後甲店（南紡）。
+### 補充說明
+如果您需要更詳細的資訊或有其他問題，請不吝詢問。我將盡力協助你。</t>
+  </si>
+  <si>
+    <t>有！我要推薦「俊吉當歸鴨」，它是台南老爺行旅附近的一間店家，以鴨肉為主，且距離約1.4公里，營業時間為特定時段。評分為4.3分，有149則評論。內用提供鴨肉料理，價位屬於便宜的範圍。如果您在附近活動，非常推薦造訪！</t>
+  </si>
+  <si>
+    <t>在距離約1.06公里處，有一家「古都碗粿 東門總店」附近的店家不算，但若考慮距離較近且有提供新口味的選項，建議你可以試試看「阿龍魯味意麵」，不過它的距離約2.45公里。 但如果你想找更近的選擇，第三代虱目魚丸雖然不是新滷味店家，但它位在比較靠近的位置，約2.9公里外。 如果你想嘗試新口味的滷味，可能需要考慮其他選項。
+### 補充說明
+附近有南紡購物中心，裡面有超商可以提供便利服務。對於週邊景點和小吃美食的詢問，建議可洽詢櫃檯協助。</t>
+  </si>
+  <si>
+    <t>在距離約292公尺處，有一間「義珍肉脯舖」是個不錯的選擇。它位於台南市東區裕農路616號，營業時間為每天早上8點至晚上20點（除星期日外）。評分為3.9分，提供內用服務。如果你想嘗試傳統肉類小吃，可以考慮義珍肉脯舖。</t>
+  </si>
+  <si>
+    <t>在安徒生咖啡館附近，有一家不錯的店家，雖然不是最靠近，但距離約1.9公里，名為「安徒生咖啡館」，不過它主要提供咖啡和簡餐。如果你想吃淡仔麵或其他麵食，可以考慮以下選項：建議直接詢問櫃台人員，他們可能會有更好的建議和推薦。或者，你可以嘗試在附近尋找標示著「親子友善」或「適合全家」的標誌，這可能會帶你發現一些不錯的親子餐廳或景點。不過，根據先前的資料，距離較近且有提供麵食的店家並不多，安徒生咖啡館是目前唯一被提及的選項，但它主要提供咖啡和簡餐。
+### 補充說明
+如果你想吃淡仔麵或其他麵食，可以考慮詢問櫃台人員，或在附近尋找標示著「親子友善」或「適合全家」的標誌。不過，需注意的是，距離較近且有提供麵食的店家並不多。</t>
+  </si>
+  <si>
+    <t>在距離約1.7公里處，有一家「品香肉粽」店，它提供內用和外送服務，價位屬於便宜等級（PRICE_LEVEL_INEXPENSIVE）。雖然評分為3.6分，但仍是附近不錯的選擇。如果你想吃多種口味肉粽，可以考慮這個地點。
+### 補充說明
+距離較近的店家中，並沒有其他提供多種口味肉粽的選項。不過，可以建議您在品香肉粽店內詢問店員是否有提供各種口味的粽子或推薦組合。這樣就能滿足您的需求了。</t>
+  </si>
+  <si>
+    <t>請問有推薦可以吃到有特色玩國和豆仔湯的餐廳嗎?</t>
+  </si>
+  <si>
+    <t>我能為您推薦一間位在台南市區的「小西腳碗粿」，它是距離老爺行旅最近的店家之一，約3.9公里遠。這間店以販售碗粿、豆仔湯等傳統小吃而聞名，且有4.3顆星的高評價！營業時間為每天上午 9 點至下午 6 點 30 分。您可以直接前往或參考營業時間再前去。
+### 補充資訊
+如果您想尋找親子餐廳或景點，建議可洽櫃台索取最新推薦。不過，我要提醒您，小西腳碗粿的豆仔湯是店內的一大特色，但它並不提供外送服務。若您有其他需求或疑問，請不吝告知！</t>
+  </si>
+  <si>
+    <t>有！我強烈推薦「古都碗粿 東門總店」附近的「阿銘鱔魚意麵」，它距離古都碗粿約2.32公里，擁有4.2分的高評價（803則評論）。阿銘鱔魚意麵的營業時間為每天11:30至00:30。由於你是台南老爺行旅的使用者，我將選擇最接近的店家進行推薦。因此，最適合品嘗道地意麵的餐廳是「阿銘鱔魚意麵」。</t>
+  </si>
+  <si>
+    <t>再發號肉粽！距離台南老爺行旅約2.94公里，營業時間為每日10:00-20:00，評分高達4.1分（2495則評論）。雖然外送選項為 False，但可以親自前往品嘗。由於位處中西區民權路二段71號，距離不遠，非常值得一試。</t>
+  </si>
+  <si>
+    <t>東悅坊是最近且唯一一間在此區域的推薦店家，距離約4.39公里，營業時間為星期日至星期六11:00-14:30、17:00-21:30，評分為4.7分。由於你詢問的是老字號甜點，但提供的資料主要是餐廳資訊，未有直接的甜點資料。不過，若以附近店家的角度來看，東悅坊本身可能有提供甜點服務或建議可前往的地點。
+### 補充說明
+如果你在尋找老字號的台南在地小吃，可以考慮造訪東悅坊，雖然它主要是餐廳，但可能能找到不錯的傳統甜點或建議。若想更準確地獲得推薦，建議直接詢問櫃檯人員或當地人才會更有幫助。</t>
+  </si>
+  <si>
+    <t>在距離約39.3公里處，有一間「景好園咖啡庭園」值得推薦，它位在台灣台南市楠西區香蕉山28之3號，環境優美，可以邊用餐邊欣賞風景。雖然它不像咖啡公路，但提供了類似的用餐體驗。</t>
+  </si>
+  <si>
+    <t>在赤崁糖- 赤崁糖原糖概念館附近，有一間「日勿rhalife  - 赤崁糖原糖概念館」距離約3.3公里，營業時間為每天10:00至20:00。雖然它主要是糖廠，但可以參考看看。不過，如果你想吃冰品，建議可以考慮在附近的店家或景點購買。</t>
+  </si>
+  <si>
+    <t>在距離約292公尺處，有一間「義珍肉脯舖」可以考慮。它位在台南市東區裕農路616號，營業時間為每天早上8點至晚上20點（除星期日外）。評分為3.9分，提供內用服務。如果你想尋找另一家餐廳，距離約1.38公里的「庫肯花園餐廳」也是一個好選擇，它有提供內用服務且評價不錯。不過，請注意這兩間店的營業時間和價位可能會有所不同。</t>
+  </si>
+  <si>
+    <t>請問鹽水區哪裡可以吃到 道地的義麵或小吃?</t>
+  </si>
+  <si>
+    <t>在鹽水區想吃道地的義麵或小吃，可考慮以下地點：橋南美食咖啡（737台灣台南市鹽水區橋南街13號），雖然它不是傳統義麵店，但可提供您所需的資訊。不過，根據先前的推薦中並沒有找到最近且唯一的一間適合的店家。建議您可以在附近探索或向當地人詢問最道地的義麵或小吃。</t>
+  </si>
+  <si>
+    <t>舊來發餅舖是台南知名的傳統糕餅店，尤其以水果餅聞名。雖然距離約3.36公里，但若您正尋找道地的傳統糕餅，舊來發餅舖是個不錯的選擇。建議可前往該處品嘗。</t>
+  </si>
+  <si>
+    <t>在這個區域內，最近且唯一一間被推薦的店家是「寶來香餅鋪」，它位於台南市中西區神農街8號，距離台南老爺行旅約3.7公里。營業時間為星期日08:30-13:30、星期二至星期四08:30-15:30，以及星期六08:30-15:30。請注意，營業時間可能會有變動，建議先向店家確認。</t>
+  </si>
+  <si>
+    <t>克林台包是台南知名的包子店，距離約2.93公里，營業時間為星期日至星期五09:00-20:00，星期日以外的平日都有提供服務。評分為4.2分，有內用和外送的選項，但需注意距離較遠。如果你在附近想吃有名的包子，可以考慮克林台包！</t>
+  </si>
+  <si>
+    <t>在這個問題中，我無法直接提供傳統餅舖或特色伴手禮的名單。不過，我可以根據你所提的選項，建議選擇最近且受好評的店家。以你所提供的資料，距離約3.4公里的「舊來發餅舖」是唯一被提及的選項。它位於台南市北區自強街17號1樓，營業時間為星期日至星期六上午9:30至下午19:30，評分為4.5分。如果你在附近，可以考慮造訪。</t>
+  </si>
+  <si>
+    <t>有！離台南老爺行旅約1000公尺處，有一間「舊振南台南旗艦店」，雖然不是紅茶店，但可以建議你去附近的轉角餐廳 Corner Steak House 或是勝利早點，不過如果你在尋找紅茶店，可能需要再多走一點路。不過，根據你的需求，我更想推薦另一家離台南老爺行旅約1.4公里的「轉角餐廳 Corner Steak House」不是紅茶店，但如果你要找獨特口味的紅茶店，附近有一間「勝利早點」距離約1.7公里，不過它主要是提供早點和飲料。 如果你在尋找紅茶店，可能需要考慮其他選項。</t>
+  </si>
+  <si>
+    <t>請問哪裡可以買到道地的古早味冰棒?</t>
+  </si>
+  <si>
+    <t>在距離台南老爺行旅約2.6公里處，有一間「順天冰棒」是購買道地古早味冰棒的好選擇。它位於台南市中西區開山路151巷7之1號，營業時間為每天上午10點至下午6點（星期日至星期六），且有4.3分的高評價（共563則評論）。雖然無法得知確切的距離，但以地理位置來看，順天冰棒是最接近台南老爺行旅的推薦店家。</t>
+  </si>
+  <si>
+    <t>在距離台南老爺行旅約2.7公里處，有一間友誠蝦仁肉圓（開山路118號），營業時間為每天09:45-19:30，評分為3.9分。它是唯一被推薦的店家，且價位屬於便宜等級。建議您可以前往品嘗。</t>
+  </si>
+  <si>
+    <t>在您詢問的幾間店家中，我發現「府城食府正宗台南料理」距離約6.0公里，且有提供內用服務（評分4.7/5）。雖然未特別提到有Q彈丸果，但它是當地知名的台南料理餐廳。若您想尋找特定餐點或特殊食材，建議可先電話詢問店家是否有提供。</t>
+  </si>
+  <si>
+    <t>可以推薦一家在地人喜愛的米糕或跟湯店嗎?</t>
+  </si>
+  <si>
+    <t>億哥牛肉湯後甲店（南紡）是當地人喜愛的店家，距離我約200公尺，營業時間為特定日子休、非特定假日營業。評分為4.0分，有內用空間，但無外送服務。價位屬中等水準。由於你所在的位置在後甲地區，我將其視為唯一一間最近且受歡迎的店家。</t>
+  </si>
+  <si>
+    <t>在您所提的幾家店中，並沒有直接提供賣燒牌砂鍋鴨的資訊。在提供的店家中，"華味香鴨肉羹"是與鴨相關的店家，但其營業項目和菜單內容未見有「燒牌砂鍋鴨」這道菜。若您想找賣燒牌砂鍋鴨的餐廳，可考慮查詢網路評論或附近美食指南，以找到最適合您的餐廳。</t>
+  </si>
+  <si>
+    <t>在慶中街就有一間「郭家綠豆湯」，它是附近最接近的店家，距離約2.97公里，營業時間為星期日和星期二的11:30至19:30。這間店的評分高達4.3分，有內用空間，價位屬於便宜的級別。如果你在該區活動且想吃傳統甜品，可以考慮前往慶中街郭家綠豆湯！</t>
+  </si>
+  <si>
+    <t>我在台南玩的時候 哪裡可以吃到好吃的手工甜品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在慶中街郭家綠豆湯（約3.0公里）外，距離較近且有提供內用的店家是大東夜市或大東東夜市，但建議可先查詢營業時間和最新評價。不過，若你想吃手工甜品，可以考慮以下選項： 如果你正走在台南的慶中街，離你最近的手工甜品店是「郭家綠豆湯」，它以招牌的綠豆湯聞名，而且距離台南老爺行旅約2.97公里，非常方便。因此，最推薦的店家是： # 慶中街郭家綠豆湯，地址在700台灣台南市中西區慶中街16號，營業時間為星期日和星期二的11:30至19:30。 </t>
+  </si>
+  <si>
+    <t>附近有幾間不錯的滷味店，但要找到當天現做的滷味店可能需要親自走訪或詢問當地人。不過，我可以提供一項建議：在距離約1.06公里處，有一家「古都碗粿 東門總店」附近，雖然不是主要販售滷味的店家，但你可以先從這個區域開始探索。此外，你也可以考慮查詢網路上評價高的滷味店，比如「阿龍魯味意麵」或「第三代虱目魚丸」，但要注意它們的營業時間和距離。不過，如果你在尋找當天現做的滷味店，我會建議直接詢問當地人或使用線上地圖導航更能找到最新資訊。</t>
+  </si>
+  <si>
+    <t>我可以向你推薦一間最近且受歡迎的店家 - 阿銘鱔魚意麵。它位於台南市北區開元路192號，距離你所在的位置約2.3公里。阿銘鱔魚意麵的營業時間為每天的11:30至24:00，而且有內用和外送服務。評分高達4.2分，有803則評論。如果你在附近活動或想吃道地的台南鱔魚意麵，阿銘鱔魚意麵是個不錯的選擇。</t>
+  </si>
+  <si>
+    <t>我發現離您所在位置約11.3公里的Kaluwa 泰式音樂餐廳雖然不是傳統的海鮮餐廳，但它提供的環境很棒，而且距離不遠。不過，我需要提醒您，Kaluwa 泰式音樂餐廳主要以泰式料理為主，並不提供外送服務，也不是一間海鮮專售店。如果您正尋找新鮮的海鮮料理，可能需要考慮其他選項。</t>
+  </si>
+  <si>
+    <t>我發現離台南老爺行旅約1.4公里處，有一間「轉角餐廳 Corner Steak House」值得推薦。雖然它主要以牛排聞名，但其實有提供各式天然特色甜點，不妨試試看！如果你想品嘗天然的咖啡和甜點，距離約2.13公里的「咖啡部屋」也是一個不錯的選擇。不過，請注意「咖啡部屋」僅營業至晚上 9 點或 10 點之間，建議先確認營業時間再前往。</t>
+  </si>
+  <si>
+    <t>在離您最近的阿龍杏仁茶（約1.0公里）外，建議您可考慮前往鄰近區域，可能會有販售新鮮水果製成的甜點或小吃。不過，根據提供的資料中並未直接提及特定店家，但可以嘗試查詢Google地圖或線上評論來找到最適合您的地點。</t>
+  </si>
+  <si>
+    <t>請問在這附近哪裡可以買到米漬或蓮子相關的伴手禮或小吃?</t>
+  </si>
+  <si>
+    <t>在您所在的台南老爺行旅附近，有一家「品香肉粽」是購買米漬或蓮子相關伴手禮的好選擇，距離約1.7公里。它位於台南市東區府連東路41號，營業時間為每天07:00至20:00。除了肉粽外，也可以考慮購買相關的米食或小吃。</t>
+  </si>
+  <si>
+    <t>在您所在的位置，距離約 900 公尺處，有一間「千香麥香雞專賣店」(地址：701 台灣台南市東區東安路 217 號)，雖然主要販售麥香雞，但也可能提供或推薦特色雞蛋產品。建議可前往該店詢問是否有供應。</t>
+  </si>
+  <si>
+    <t>在離此約1.38公里處，有一家庫肯花園餐廳，但它主要提供中式餐點和麥香雞，並非咖啡館。不過，在更近一點的地方，雖然沒有直接的推薦，但可以嘗試查詢附近的咖啡店或咖啡館，可能會有優質的咖啡供您品嚐。建議可先上網搜尋或詢問當地人才知道最美味的咖啡所在。</t>
+  </si>
+  <si>
+    <t>請問在當地有什麼以米產品為主的特色店家值得推薦嗎?</t>
+  </si>
+  <si>
+    <t>我將依據所提供的背景資料，選擇最近且唯一一間的店家進行推薦。由於您詢問的店家類型為以米產品為主的特色店，但在原資料庫中並未直接列出以米產品為主的店家。不過，我可以根據現有的資料，建議您可考慮位於台南市東區的「千香麥香雞專賣店」雖然主要販售麥香雞等相關產品，但若您仍想尋找以米產品為主的店家，可能需要在附近進一步搜尋。然而，根據所提供的資料，無法直接找到完全符合的店家。</t>
+  </si>
+  <si>
+    <t>想找一家專賣傳統中式糕點的店,你有推薦嗎?</t>
+  </si>
+  <si>
+    <t>我可以向你推薦「寶來香餅鋪」，它位於台南市區的神農街上，距離約3.7公里，營業時間為星期日和特定時段。這間店以販售傳統中式糕點而聞名，且擁有4.3分的高評價（142則評論）。如果你在附近活動，可以考慮前往品嘗。</t>
+  </si>
+  <si>
+    <t>我發現有一間「古都碗粿 東門總店」附近有家「第三代虱目魚丸」，但它主要賣的是虱目魚製品。如果你在尋找古法製作滷味的店家，可能需要再多查一些資料。不過，我可以直接推薦一間距離較近的店家，就是「阿龍魯味意麵」。雖然我無法確認其是否完全遵循古法，但它是有提供內用和外送服務的在地小吃店，且評價不差（4.0分）。</t>
+  </si>
+  <si>
+    <t>請問這附近哪裡有賣好吃的手工點心嗎?</t>
+  </si>
+  <si>
+    <t>在舊振南台南旗艦店（約1000公尺）或明新食品總店（約1.2公里）這兩間店中，你可以找到不錯的手工點心。不過，如果你想找最近且具有高評價的店家，我會強力推薦「舊振南台南旗艦店」。它擁有4.8分的高評價，營業時間也相當長，從星期日到星期六都有營業。此外，它的距離約1000公尺，步行或開車都很方便。雖然我無法提供最短的時間，但你可以在中午或下午時前往，應該會找到不錯的手工點心。</t>
+  </si>
+  <si>
+    <t>請問在傳統市場有什麼當地特色零食值得推薦嗎?</t>
+  </si>
+  <si>
+    <t>在這個問題中，我無法直接提供或描述特定的傳統市場和當地特色零食。不過，我可以建議你可以造訪「黑橋牌香腸博物館」附近的傳統市場，可能會發現一些在地且獨特的特色零食。由於我是基於先前的背景資料進行回覆，而非即時的市場調查，因此我將直接指向一個最近且值得推薦的店家：# 黑橋牌香腸博物館（台南市南區新忠路2號），營業時間為星期日 09:30-17:30。雖然它主要以香腸聞名，但你可以在附近探索更多當地特色零食。</t>
+  </si>
+  <si>
+    <t>可以推薦幾家在地口碑好又經營已久的水果店讓我去逛逛嗎?</t>
+  </si>
+  <si>
+    <t>基於提供的背景資料，我將依據距離和口碑來為您推薦一間最近且口碑好的店家：阿龍杏仁茶，約1.0公里，營業時間為每天10:30至22:00，評分為4.5分。它是唯一被提及的選擇，具有高評價和便利的位置。</t>
+  </si>
+  <si>
+    <t>我來這裡旅遊香皂機家有特色的鹹粥餐廳可以推薦嗎?</t>
+  </si>
+  <si>
+    <t>在距離約2.9公里處，有一間「第三代虱目魚丸」是由第三代經營的老店，營業時間為每天06:00-14:00，評分為4.2分。它提供內用服務，價位屬於便宜等級。雖然外送選項不多，但它是附近最接近的店家之一。</t>
+  </si>
+  <si>
+    <t>請問在台南還有哪些百年老字號的小吃點可以推薦嗎?</t>
+  </si>
+  <si>
+    <t>在這個問題中，我無法直接提供一個具體的、唯一的一間最近的店家推薦。不過，我可以向你介紹幾家在台南頗有名氣且具有代表性的百年老字號小吃點，包括再發號肉粽，它位於中西區民權路二段71號，營業時間為星期日至星期六早上10點到晚上8點，評分為4.1分。由於你所在的位置距離這些店家有一段距離（約2.9到4.86公里），我建議你可以考慮以下幾種選擇： 1. 大東夜市、2. 大東東夜市、3. 花園夜市、4. 武聖夜市等，這些是台南附近的知名夜市。此外，你也可以造訪南紡購物中心和奧斯丁夢想樂園等景點。 如果你想知道更詳細的資訊或最新訊息，我建議你直接向櫃檯人員詢問或查詢最新資料。</t>
+  </si>
+  <si>
+    <t>在您所在的位置，距離約3.54公里的小公園擔仔麵是一個不錯的選擇，它位於台南市中西區西門路二段321號，營業時間為星期日16:30-22:00。評分為4.3分，有內用和外送服務，但需注意它是價格親民的小店。若您在附近活動，不妨考慮前往品嚐。</t>
+  </si>
+  <si>
+    <t>在您詢問的地點附近，有一間「小南米糕」是值得推薦的傳統小吃店，它位於台南市東區大同路一段189號，距離約2.3公里。小南米糕的營業時間為每天上午10點至晚上7點30分（星期日至星期六），評分為3.9分，提供內用和外送服務，價位屬於便宜等級。若您在附近活動且想品嚐傳統米糕，可以考慮造訪這間店。</t>
+  </si>
+  <si>
+    <t>我在台南旅遊 想找適合全家聚餐的魚丸餐廳可以推薦嗎?</t>
+  </si>
+  <si>
+    <t>根據你的需求，我要介紹一間最近且距離較近的店家：小南米糕（約2.3公里），它是家有名的魚丸店，營業時間為每天上午 10 點至晚上 7 點 30 分。雖然我無法提供最短的時間，但可以告訴你，這間店的環境和魚丸都很受好評。</t>
+  </si>
+  <si>
+    <t>我來台南香蕉繞字號的西點專賣蛋糕或麵包有推薦的嗎?</t>
+  </si>
+  <si>
+    <t>在這個區域，距離台南老爺行旅約300公尺處，有一間「明新食品-東寧二店」，它是一家西點專賣的店家，營業時間為星期日至星期六的08:30至21:30。雖然我無法提供最即時的用餐時間，但可以確定的是，這間店是附近的一個不錯選擇。</t>
+  </si>
+  <si>
+    <t>在您詢問的地點附近，距離約3.8公里，有一間「莊子土豆仁湯」是最近且唯一的一間店家，值得推薦。它位於台南市中西區民生路二段86號，營業時間為星期日和星期一的14:00至22:00。由於您未提供確切的時間或更近的選項，因此我將依據現有資料進行回答。</t>
+  </si>
+  <si>
+    <t>我可以去哪裡買到台灣特產蜜餞</t>
+  </si>
+  <si>
+    <t>在距離約3.2公里處，有一間「臺南府城 吳萬春蜜餞」是值得推薦的店家，它位於台南市中西區赤崁東街22號，營業時間為星期日至星期六10:00-18:00。評分為4.5分，有188則評價。建議你可以前往這家店品嘗台灣特產的蜜餞。</t>
+  </si>
+  <si>
+    <t>請問有推薦的手工餅鋪可以買到好吃的肉包和糕點嗎?</t>
+  </si>
+  <si>
+    <t>我將依據所提供的背景資料，為您推薦最近且唯一的一間店家：明新食品總店。它位於台南市東區東寧路51號，距離約1.2公里，營業時間為每天09:00至21:30。評分為4.0分，有外送服務且價位屬適中。請注意，距離的測量可能因個人路線而異，但以Google Maps導航為準。</t>
+  </si>
+  <si>
+    <t>在距離台南老爺行旅約3.4公里處，有一間「舊來發餅舖」是購買傳統特色糕點的好選擇，尤其是黑糖香餅。其地址位於台南市北區自強街17號1樓，營業時間為每天上午 9:30 至下午 19:30。這間店以販售各式傳統餅類而聞名，包括黑糖香餅，值得一試。</t>
+  </si>
+  <si>
+    <t>請問這附近有沒有推薦的傳統手作和素食點心店家呢?</t>
+  </si>
+  <si>
+    <t>在您所在的位置，有一家「千香麥香雞專賣店」值得推薦，它提供著美味的麥香雞等餐點，且距離約 900 公尺。雖然它主要賣雞肉，但也可以作為您尋找傳統手作和素食點心的參考。不過，若您正尋求這兩類店家，可能需要在附近多搜尋一下。</t>
+  </si>
+  <si>
+    <t>在您所提的幾間店家中，距離最近且有提供冬瓜茶的店家是義豐冬瓜茶，約3.2公里。營業時間為每天上午8點至下午6點（星期六至星期日至下午7點）。建議可前往義豐冬瓜茶享用冬瓜茶。</t>
+  </si>
+  <si>
+    <t>到台南哪裡可以品嘗到百年老爺的密件?</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法提供台南老爺行旅的具體位置或相關資訊以確認「百年老爺的密件」是何物，建議洽詢櫃檯人員以獲得更精確的資訊。</t>
+  </si>
+  <si>
+    <t>在台南市區內有一間「寶來香餅鋪」是不錯的選擇，距離約3.7公里，營業時間為星期日和特定時段，且有4.3分的高評價。如果你想購買傳統糕點，不妨考慮走一趟這家店。附近的南紡購物中心也可能有提供類似的服務或資訊。</t>
+  </si>
+  <si>
+    <t>模式觀光客 想找有歷史的查行 要去哪裡比較好呢?</t>
+  </si>
+  <si>
+    <t>對於想探索台南的歷史和文化的觀光客，我強烈推薦「金德春老茶莊」。雖然它不是傳統的歷史景點，但具有悠久的歷史和文化意義。金德春老茶莊位於台南市中西區新美街109號，距離我所在的位置約3.42公里。這間茶莊以其高品質的茶葉和親切的服務而聞名，而且營業時間從早上9點至下午6點，非常適合想休憩並體驗在地文化的旅客。此外，金德春老茶莊的評價為4.4分（63則評論），顯示它深受顧客喜愛。如果你在附近，不妨來金德春老茶莊走走，感受一下台南的歷史和文化魅力！</t>
+  </si>
+  <si>
+    <t>請問台南有沒有像樣的老字號茶莊可以去體驗 穿透茶文化的地方呢?</t>
+  </si>
+  <si>
+    <t>金德春老茶莊是個好選擇，約3.4公里遠，營業時間為星期日至星期六上午9點至下午6點（每天），評分為4.4分。這間老字號茶莊提供了一個可以體驗和深入瞭解台南茶文化的場所。</t>
+  </si>
+  <si>
+    <t>請問在台南有沒有其他老字號的茶莊可以推薦我去參觀呢?</t>
+  </si>
+  <si>
+    <t>附近有金德春老茶莊，約3.4公里，營業時間為星期日至星期六上午9點至下午6點（視前一日公告為主），評分為4.4分。內用、外送及價位資訊請自行查詢。由於距離較近且有不錯的評價，建議可前往參觀。</t>
+  </si>
+  <si>
+    <t>在台南有一間「億哥牛肉湯後甲店（南紡）」值得推薦，它位於東區裕農路574號，距離台南老爺行旅約200公尺，步行即可到達。這家店提供著價格適中且評分4.0的美味牛肉湯，營業時間雖不多，但絕對是體驗道地台南小吃的好選擇。此外，附近還有其他店家，但以億哥牛肉湯後甲店（南紡）為唯一推薦，因為它的距離最短，約207公尺，而且是唯一一間在此區域內的傳統建築與在地小吃結合的好去處。</t>
+  </si>
+  <si>
+    <t>我想常常有名的蝦人飯 請問在台南還有哪些地方可以找到類似的美食呢?</t>
+  </si>
+  <si>
+    <t>在詢問了許多店家後，我發現在大東夜市和大東東夜市都有販售類似蝦人飯的小吃，如果你想找更近一點的選擇，可以考慮造訪台南老爺行旅附近的花園夜市或武聖夜市。不過，請注意每個夜市的營業時間和地點可能會有變動，最好先查詢過再前往。</t>
+  </si>
+  <si>
+    <t>根據你的背景資料，我將為你提供最近且唯一的一間店家推薦：品香肉粽。它位於台南市東區府連東路41號，距離約1.7公里，營業時間為每天07:00至20:00，價位屬於便宜（PRICE_LEVEL_INEXPENSIVE）。內用和外送皆有提供。由於你所在的位置接近台南老爺行旅，品香肉粽是個不錯的選擇。</t>
+  </si>
+  <si>
+    <t>我在旅行想找能升金池殼的在地特色飲品有推薦嗎?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台南老爺行旅附近有一家知名飲料店，提供一款名為「金萱」或「金桂」的在地特色飲品，但具體位置和其他細節建議洽詢櫃檯人員以獲得更準確的資訊。 </t>
+  </si>
+  <si>
+    <t>我可以推薦「毛丼」丼飯專門店，它位於台南市東區東榮街105號，距離約1.9公里。雖然它不是傳統的海鮮餐廳，但提供的丼飯中常有新鮮海鮮的選擇。此外，我也注意到你所在的位置是台南老爺行旅，附近有許多好吃的小吃和景點。如果你想找以新鮮海鮮為特色的餐廳，可以考慮「毛丼」丼飯專門店。</t>
+  </si>
+  <si>
+    <t>在距離約2.4公里處，有一間「椿友手工烘焙坊」可以購買健康的果乾。它位於台南市中西區民權路一段73號，營業時間為每天上午9點至下午6點（星期一至星期六），星期日休息。建議你可以前往這間店選購健康的果乾。</t>
+  </si>
+  <si>
+    <t>台南地區以萬川號餅舖較為知名，不過我要推薦最近且唯一的一間店家：鄭記碗粿，它約距離2.4公里遠，以麥芽糖為麵糊的基底，非常有名。它的營業時間為星期日和星期一上午8點30分至下午5點30分，星期二至星期四公休。評分為4.2分，有內用空間，但無外送服務。價位屬於便宜等級。在此情況下，我將選擇鄭記碗粿作為推薦。</t>
+  </si>
+  <si>
+    <t>億哥牛肉湯後甲店（南紡）是個好選擇，距離約200公尺，營業時間為特定日子休，評分4.0。雖然無法直接得知是否有脆皮小吃，但可考慮前往這間店品嘗。此外，義珍肉脯舖和明新食品-東寧二店也在附近，不過提供的資訊中並未明確提到脆皮小吃。建議您可以先查詢店家的菜單或評價來做決定。</t>
+  </si>
+  <si>
+    <t>請問來台南有什麼推薦的伴手禮盒在地特色水果可以帶回去嗎?</t>
+  </si>
+  <si>
+    <t>在這個問題中，我無法直接提供或推薦特定的伴手禮盒或在地特色水果。不過，我可以建議您考慮以下幾種在台南當地很受歡迎且具代表性的水果：芒果、鳳梨、木瓜等。這些水果都是台南的特產，不僅美味，也是送禮的好選擇。若想購買具有台南在地特色的伴手禮盒，可考慮以下店家：# 阿龍杏仁茶（雖然不是傳統的水果店，但可作為參考）。不過，建議您可以直接洽詢櫃檯或當地觀光資訊中心，他們會有更詳盡的建議和推薦。</t>
+  </si>
+  <si>
+    <t>在附近，有一家「東悅坊」是推薦的店家，距離約4.39公里，營業時間為每天11:00至14:30、17:00至21:30。雖然我無法直接提供購買時間，但你可以考慮前往東悅坊購買健康的蝦餅。</t>
+  </si>
+  <si>
+    <t>在您所在的區域內，有一家「阿龍杏仁茶」店，距離約1.0公里，營業時間為每天10:30至22:00，評分4.5分。雖然它主要賣杏仁茶，但可能有提供一些手工餅乾或伴手禮。建議可前往這間店詢問。</t>
+  </si>
+  <si>
+    <t>請問在哪裡可以找到口感很好的麻術和大福嗎?</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法提供特定地點的麻術和大福販售或供應資訊，建議洽詢櫃檯人員以獲得更準確的協助。</t>
+  </si>
+  <si>
+    <t>來台南玩哪裡有好吃的 滑嫩豆花 可以推薦嗎?</t>
+  </si>
+  <si>
+    <t>在距離約1.48公里處，有一間「水缸豆花」是不錯的選擇，營業時間為每天的11:00至21:00，評分為4.2分。它位在701台灣台南市東區崇善路255號。如果你想避開人潮或有其他規劃，可以考慮這個地點。</t>
+  </si>
+  <si>
+    <t>我在旅途中想吃口感獨特的米糕,可以推薦哪間餐廳嗎?</t>
+  </si>
+  <si>
+    <t>我可以推薦「小南米糕」，它位於台南市東區大同路一段189號，距離約2.3公里。營業時間為每天10:00至19:30。評分為3.9分，有內用和外送服務。價位屬於便宜的級別。如果你在附近，不妨試試這間口碑不錯的米糕店！</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法提供推薦具有「甜點不佳」、「水」、「口感更濃厚」特徵的餐廳資訊，因所提條件可能有主觀認定且未包含在一般評價或基本資料中。建議洽詢櫃檯人員以獲得更準確的資訊和協助。</t>
+  </si>
+  <si>
+    <t>請問哪裡有提供套餐的 複合式餐飲店可以推薦嗎?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南紡購物中心內有一家複合式餐飲店，提供多種套餐選擇，建議可前往洽詢。 </t>
+  </si>
+  <si>
+    <t>我正在找評價又好吃的肉燥飯或肉燥麵 可以去哪裡吃嗎?</t>
+  </si>
+  <si>
+    <t>在億哥牛肉湯後甲店（南紡）附近，有一家「古都碗粿 東門總店」和「勝立牛肉湯」，但如果你正尋找最好吃的肉燥飯或肉燥麵，基於提供的資料，我會強力推薦「億哥牛肉湯後甲店（南紡）」。雖然它不是傳統的肉燥飯或肉燥麵店家，但其所提供的牛肉料理在當地頗受好評。此外，從億哥牛肉湯後甲店（南紡）到古都碗粿 東門總店的距離約1.06公里，到勝立牛肉湯的距離約1.42公里。如果你是想吃最方便且好吃的肉燥飯或肉燥麵，「億哥牛肉湯後甲店（南紡）」將會是最好的選擇。</t>
+  </si>
+  <si>
+    <t>克林台包是由傳統工法製作的包子，且離台南老爺行旅很近。它位於台灣台南市中西區府前路一段218號，營業時間為每天09:00-20:00，評分為4.2分。雖然距離約2.93公里，但還是值得一訪。</t>
+  </si>
+  <si>
+    <t>我將依據所提供的背景資料，為您推薦一間最近且適合的店家。由於烏山咖啡的距離約27.5公里，位於台南市南化區南176鄉道，營業時間為星期日11:00-19:00等。雖然它不是最靠近的，但基於所提供的資料，它是唯一被提及的咖啡園區附近的店家。因此，我將推薦「烏山咖啡」作為在咖啡園區一邊喝咖啡一邊欣賞美景並享用美食的理想選擇。</t>
+  </si>
+  <si>
+    <t>我在台南旅遊想找以善魚料理為主的小吃店有推薦嗎?</t>
+  </si>
+  <si>
+    <t>在台南北區有一間「台南蔡虱目魚專賣店」值得推薦，它以虱目魚為主要食材，營業時間為星期日至星期五 10:30-22:00，距離你所在的位置約3.4公里。這間店的評分為4.0分，有內用和外送服務，價位屬於便宜（PRICE_LEVEL_INEXPENSIVE）。雖然我無法提供最即時的用餐時間，但可以告訴你，這間店是鄰近區域內的一個好選擇。</t>
+  </si>
+  <si>
+    <t>在距離台南老爺行旅約207公尺處，有一間「億哥牛肉湯後甲店（南紡）」是不錯的選擇。它的評分為4.0分，營業時間雖然不多，但提供內用服務。附近還有其他店家，但以億哥牛肉湯後甲店（南紡）的位置和評價來看，是最近且受歡迎的選擇。</t>
+  </si>
+  <si>
+    <t>阿銘鱔魚意麵是您可以考慮的選擇，因為它位於台南市北區開元路192號，距離約2.32公里遠，且營業時間為每日11:30至00:30。這間店的意麵和滷味都頗受好評，而且有提供內用和外送服務。不過，請注意，附近店家資訊可能會有所變動，建議您可先向櫃檯確認最新情況。</t>
+  </si>
+  <si>
+    <t>在距離約3.9公里處，有兩間口碑不錯的店家：小公園擔仔麵、矮仔成蝦仁飯，以及集品蝦仁飯。不過，我將推薦唯一一間最近且最受好評的店家：# 小公園擔仔麵（4.3分，1267則評論），營業時間為星期日至星期四16:30-22:00，距離你所在的位置約3.54公里。雖然它不是蝦仁飯，但小公園擔仔麵是台南有名的擔仔麵店，可以考慮試試。不過，如果你還是想吃蝦仁飯，我會建議直接去問櫃檯人員，他們可能能提供更近且有賣蝦仁飯的店家資訊。</t>
+  </si>
+  <si>
+    <t>在附近，有一家「毛丼」丼飯專門店（4.6星，9972則評分），距離約1.86公里，提供新鮮且美味的海鮮丼飯，是值得一試的選擇。此外，也可考慮「延齡堂-高粱酸白菜火鍋」（4.1星，649則評分），雖然主要以火鍋為主，但也提供多種海鮮選項，距離約2.44公里。建議您可以先瀏覽網路評論或電話詢問營業時間後再前往。</t>
+  </si>
+  <si>
+    <t>在您詢問的店家中，我發現「上海華都小吃」是最近且唯一一間被提及的店家，距離約2.8公里。它位於台南市中西區民權路二段28號，營業時間為星期日、星期一從10:50至21:00，其他日子不開放。評分為3.2分，有內用空間，但無外送服務。價位屬適中。不過，請注意，附近夜市有大東夜市、大東東夜市等可供選擇。若您想吃小籠包或中式小吃，可考慮前往上海華都小吃。</t>
+  </si>
+  <si>
+    <t>在距離約207公尺處，有一間「億哥牛肉湯後甲店（南紡）」是最近且唯一被挑選的店家。它提供著價格適中的價格，營業時間為特定日子休息，其他日子則營業。評分為4.0分，內用為真。由於先前的資料中未提及其他符合條件的選項，因此在此情況下，只能推薦這間「億哥牛肉湯後甲店（南紡）」。</t>
+  </si>
+  <si>
+    <t>我無法直接提供一家唯一的最近咖啡店推薦。不過，我可以依據先前的背景資料中提到的店家，向你介紹幾間風格獨特且氣氛舒適的咖啡店。由於先前的資料中並未直接提及台南有哪些咖啡店符合上述條件，但我能建議你可考慮以下幾個因素來尋找：距離、營業時間、環境氛圍等。若無特定資訊，僅能提供先前提到的店家資訊不足，建議您洽詢櫃檯協助或線上搜尋評論來找到最合適的咖啡店。</t>
+  </si>
+  <si>
+    <t>我在旅行想找一家能讓我放鬆又能品嘗特色飲品的咖啡館。請問有推薦的嗎?</t>
+  </si>
+  <si>
+    <t>我發現有一間「千香麥香雞專賣店」附近的咖啡館不在選項中，但如果你在東區，可以考慮「轉角餐廳 Corner Steak House」或「庫肯花園餐廳」。不過，我要提醒你，根據你的背景資料，距離最近的店家是「千香麥香雞專賣店」，它約900公尺遠。如果你想放鬆並品嘗特色飲品，可能需要考慮其他選項。建議你可以查詢「轉角餐廳 Corner Steak House」或「庫肯花園餐廳」的營業時間和環境是否適合你的需求。</t>
+  </si>
+  <si>
+    <t>在您所提的幾間店中，我發現有一家「轉角餐廳 Corner Steak House」距離約1.4公里，營業時間為星期日11:30-15:00、17:30-22:00；星期一至星期六11:30-15:00、17:30-22:00。不過，這間店主要提供牛排和三明治等餐點，不是咖啡為主的咖啡店。 如果您在附近尋找現泡咖啡與三明治的組合，可能需要考慮其他選項。</t>
+  </si>
+  <si>
+    <t>由於所提供的背景資料主要提及餐廳和其營業時間，而非咖啡店。不過，我能為你找到一間在附近且有提供座位的店家，雖然不是傳統咖啡店，但它有提供多種飲品和餐點。考量距離和評價後，推薦「回甘咖啡」。</t>
+  </si>
+  <si>
+    <t>請問在台灣想吃像蛋仔麵的傳統小吃可以去哪裡?</t>
+  </si>
+  <si>
+    <t>在台南度小月擔仔麵原始店本舖（地址：700台灣台南市中西區中正路16號）是個好選擇，距離你所在的位置約3.04公里，營業時間為每天11:00至20:00。這間店以傳統的擔仔麵和各式小吃而聞名，是品嚐道地台南味的絕佳去處。</t>
+  </si>
+  <si>
+    <t>除了江川肉燥飯之外,我還能去哪裡吃到好吃的肉燥飯?</t>
+  </si>
+  <si>
+    <t>在距離江川肉燥飯約200公尺處，有一間億哥牛肉湯後甲店（南紡），它也提供美味的肉燥飯，且營業時間為星期日至星期六 07:30-15:30。雖然它不是傳統的肉燥飯店，但以「億哥牛肉湯」之名而聞名的肉燥飯是必試的好滋味。</t>
+  </si>
+  <si>
+    <t>我第一次來台南想找好吃的炸魚店可以推薦幾家嗎?</t>
+  </si>
+  <si>
+    <t>根據你的需求，我將為你推薦最接近台南老爺行旅的店家。由於你是首次造訪台南，且希望找到好吃的炸魚店，我將選擇距離最近且有好評價的店家。不過，需注意的是，提供的資料中並無直接對應的炸魚店資訊。然而，我能告訴你一個在大東夜市附近且有好口碑的店家： # 3皇3家 中華東店（非炸魚店，但可考慮其他選項）距離約 730 公尺，營業時間為每天 10:00-21:00，評分為 4.0。由於這間店不是炸魚店，我將另尋其他選擇。 在大東夜市附近的店家中，有一家上富小吃店，雖然不是炸魚店，但它有著高評價（4.3）且位在中西區大同路一段142號，營業時間為每天 11:00-18:30。不過，若你仍在尋找炸魚店，我建議可考慮造訪大東夜市本身，可能會有更多的選擇。</t>
+  </si>
+  <si>
+    <t>在距離台南老爺行旅約292公尺處，有一間「義珍肉脯舖」是值得推薦的店家，提供傳統的肉脯和各式小吃。營業時間為每天早上8點至晚上20點（週一至週六），週日休息。評分為3.9分。建議您可以前往義珍肉脯舖品嘗傳統的香腸和冷食等小吃。</t>
+  </si>
+  <si>
+    <t>我到台南想吃晚貴那種經典米食 有什麼推薦的嗎?</t>
+  </si>
+  <si>
+    <t>在這個問題中，我將提供一個基於先前的背景資料的答案。由於你詢問的是「晚貴」的意思可能有誤，假設你是指「貴」或更接近的選項，根據先前的資料，友誠蝦仁肉圓是一家很好的選擇，它位於台南市中西區開山路118號，距離台南老爺行旅約2.7公里。這間店的營業時間為每天09:45至19:30，而且有著3.9分的高評價（715則評論）。內用和外送的資訊請參考上面的資料。由於你可能是指「晚貴」而非「貴」，但從你的問題中無法直接得知，你可以考慮選擇離台南老爺行旅最近且有提供類似米食的店家，友誠蝦仁肉圓是個不錯的選擇。</t>
+  </si>
+  <si>
+    <t>在億哥牛肉湯後甲店（南紡）附近，有一間「義珍肉脯舖」和「明新食品-東寧二店」，但如果你在尋找羹類料理，建議你可以考慮走往距離約 207 公尺的「億哥牛肉湯後甲店（南紡）」，雖然它不是羹類料理，但附近有許多好吃的羹類店家。不過，根據你的要求，我將推薦一間最近且有名的店家：億哥牛肉湯後甲店（南紡），因為它是唯一一間在這個區域內的選項。</t>
+  </si>
+  <si>
+    <t>請問在台南哪裡可以吃到有懷舊氛圍的特色玩果嗎?</t>
+  </si>
+  <si>
+    <t>在台南市區的神農街8號，有一間「寶來香餅鋪」是當地知名的老店，它擁有濃厚的懷舊氣息，販售各式傳統餅類和點心。雖然距離台南老爺行旅約3.7公里，但仍是個值得造訪的地點。建議您可以前往體驗一下古早味的魅力！</t>
+  </si>
+  <si>
+    <t>我到台南想吃道地的米食和傳統湯品 有什麼推薦的店家嗎?</t>
+  </si>
+  <si>
+    <t>在距離約529公尺處，有一家「長春健康素食餐飲連鎖中華店」是不錯的選擇，營業時間為星期日、星期一的10:30-13:30及16:30-20:00，其他日子請看官網或現場詢問。這間店提供中式米食和傳統湯品，且有內用和外送服務。如果你想吃更高檔的餐廳，距離約1.37公里處的「轉角餐廳 Corner Steak House」是另一個選擇，但需注意它不提供外送。若你在附近活動，可以考慮前往。</t>
+  </si>
+  <si>
+    <t>在您所在的台南市區，有一間「小南米糕」是值得推薦的店家，距離台南老爺行旅約2.3公里，營業時間為每天10:00至19:30。小南米糕提供美味的內用和外送服務，價位屬於便宜的級別。如果您正在尋找傳統的滷麵或米糕，這將是一個不錯的選擇。</t>
+  </si>
+  <si>
+    <t>在距離約3.6公里處，有一間「永樂燒肉飯」值得推薦！它位在台南市中西區民族路三段16號，營業時間為每天上午10點至晚上9點（星期日至星期六）。這間店的評分高達3.9分，由2477則評論所累積而來。不僅可以內用，也提供外送服務。價位屬於便宜級（PRICE_LEVEL_INEXPENSIVE），是個物超所值的好選擇！</t>
+  </si>
+  <si>
+    <t>請問在台南有米其林推薦的店家嗎?特別是麥米高的</t>
+  </si>
+  <si>
+    <t>根據你的背景資料，我將為你提供最近且唯一一間的店家推薦。由於你所指的「麥米高」可能是指某家餐廳或品牌，但未明確指出，因此我將基於你所提的條件和距離等因素，選擇最接近且符合條件的店家。</t>
+  </si>
+  <si>
+    <t>我來台南旅行 想請問哪裡可以吃到當地受歡迎的私牧魚料理</t>
+  </si>
+  <si>
+    <t>在距離我所在的位置約3.35公里處，有一間「福泰飯桌」是由Google Maps 定位，且有提供私牧魚料理。它位於台南市中西區民族路二段240號，營業時間為每天早上7:30至下午2點（星期一至星期五），星期日及國定假日休息。評分為4.3分，有744則評論。建議你可以前往福泰飯桌品嘗當地的私牧魚料理。</t>
+  </si>
+  <si>
+    <t>台南武廟肉圓在當地頗有名氣，雖然離我所在的位置約3.2公里，但它以獨特的風味和口感而聞名。如果你想嘗試道地的台南肉圓，可以考慮前往台南武廟肉圓一試。附近店家資訊不足，建議您洽詢櫃檯協助。</t>
   </si>
 </sst>
 </file>
@@ -1495,10 +1433,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1781,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1808,1400 +1745,1400 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>304</v>
+      <c r="A2" t="s">
+        <v>164</v>
       </c>
       <c r="B2" t="s">
         <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>305</v>
+      <c r="A3" t="s">
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>306</v>
+      <c r="A4" t="s">
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>307</v>
+      <c r="A5" t="s">
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>308</v>
+      <c r="A6" t="s">
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>309</v>
+      <c r="A7" t="s">
+        <v>169</v>
       </c>
       <c r="B7" t="s">
         <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>310</v>
+      <c r="A8" t="s">
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>311</v>
+      <c r="A9" t="s">
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>312</v>
+      <c r="A10" t="s">
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>313</v>
+      <c r="A11" t="s">
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>314</v>
+      <c r="A12" t="s">
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>315</v>
+      <c r="A13" t="s">
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>316</v>
+      <c r="A14" t="s">
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>317</v>
+      <c r="A15" t="s">
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>278</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>318</v>
+      <c r="A16" t="s">
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>319</v>
+      <c r="A17" t="s">
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>320</v>
+      <c r="A18" t="s">
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>321</v>
+      <c r="A19" t="s">
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>322</v>
+      <c r="A20" t="s">
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>323</v>
+      <c r="A21" t="s">
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>285</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>324</v>
+      <c r="A22" t="s">
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>325</v>
+      <c r="A23" t="s">
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>326</v>
+      <c r="A24" t="s">
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>290</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>327</v>
+      <c r="A25" t="s">
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>328</v>
+      <c r="A26" t="s">
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>329</v>
+      <c r="A27" t="s">
+        <v>189</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="C27" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>330</v>
+      <c r="A28" t="s">
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>331</v>
+      <c r="A29" t="s">
+        <v>191</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>332</v>
+      <c r="A30" t="s">
+        <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>333</v>
+      <c r="A31" t="s">
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>334</v>
+      <c r="A32" t="s">
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>335</v>
+      <c r="A33" t="s">
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="C33" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>336</v>
+      <c r="A34" t="s">
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>337</v>
+      <c r="A35" t="s">
+        <v>197</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>338</v>
+      <c r="A36" t="s">
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>304</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>339</v>
+      <c r="A37" t="s">
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="C37" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>340</v>
+      <c r="A38" t="s">
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>341</v>
+      <c r="A39" t="s">
+        <v>201</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="C39" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>342</v>
+      <c r="A40" t="s">
+        <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>311</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>343</v>
+      <c r="A41" t="s">
+        <v>203</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>344</v>
+      <c r="A42" t="s">
+        <v>204</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="C42" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>345</v>
+      <c r="A43" t="s">
+        <v>205</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="C43" t="s">
-        <v>245</v>
+        <v>318</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>346</v>
+      <c r="A44" t="s">
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>347</v>
+      <c r="A45" t="s">
+        <v>207</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>348</v>
+      <c r="A46" t="s">
+        <v>208</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>321</v>
       </c>
       <c r="C46" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>349</v>
+      <c r="A47" t="s">
+        <v>209</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>323</v>
       </c>
       <c r="C47" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>350</v>
+      <c r="A48" t="s">
+        <v>210</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>351</v>
+      <c r="A49" t="s">
+        <v>211</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
       <c r="C49" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>352</v>
+      <c r="A50" t="s">
+        <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>328</v>
       </c>
       <c r="C50" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>353</v>
+      <c r="A51" t="s">
+        <v>213</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>354</v>
+      <c r="A52" t="s">
+        <v>214</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>331</v>
       </c>
       <c r="C52" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>355</v>
+      <c r="A53" t="s">
+        <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>356</v>
+      <c r="A54" t="s">
+        <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="C54" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>357</v>
+      <c r="A55" t="s">
+        <v>217</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>358</v>
+      <c r="A56" t="s">
+        <v>218</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>337</v>
       </c>
       <c r="C56" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>359</v>
+      <c r="A57" t="s">
+        <v>219</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>339</v>
       </c>
       <c r="C57" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>360</v>
+      <c r="A58" t="s">
+        <v>220</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>341</v>
       </c>
       <c r="C58" t="s">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>361</v>
+      <c r="A59" t="s">
+        <v>221</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>362</v>
+      <c r="A60" t="s">
+        <v>222</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>344</v>
       </c>
       <c r="C60" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>363</v>
+      <c r="A61" t="s">
+        <v>223</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>263</v>
+        <v>346</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>364</v>
+      <c r="A62" t="s">
+        <v>224</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>347</v>
       </c>
       <c r="C62" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>365</v>
+      <c r="A63" t="s">
+        <v>225</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>366</v>
+      <c r="A64" t="s">
+        <v>226</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C64" t="s">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>367</v>
+      <c r="A65" t="s">
+        <v>227</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>368</v>
+      <c r="A66" t="s">
+        <v>228</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>369</v>
+      <c r="A67" t="s">
+        <v>229</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>353</v>
       </c>
       <c r="C67" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>370</v>
+      <c r="A68" t="s">
+        <v>230</v>
       </c>
       <c r="B68" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C68" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>371</v>
+      <c r="A69" t="s">
+        <v>231</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>372</v>
+      <c r="A70" t="s">
+        <v>232</v>
       </c>
       <c r="B70" t="s">
-        <v>172</v>
+        <v>357</v>
       </c>
       <c r="C70" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>373</v>
+      <c r="A71" t="s">
+        <v>233</v>
       </c>
       <c r="B71" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="C71" t="s">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>374</v>
+      <c r="A72" t="s">
+        <v>234</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>361</v>
       </c>
       <c r="C72" t="s">
-        <v>274</v>
+        <v>362</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>375</v>
+      <c r="A73" t="s">
+        <v>235</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>376</v>
+      <c r="A74" t="s">
+        <v>236</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>364</v>
       </c>
       <c r="C74" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>377</v>
+      <c r="A75" t="s">
+        <v>237</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="C75" t="s">
-        <v>277</v>
+        <v>367</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>378</v>
+      <c r="A76" t="s">
+        <v>238</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>379</v>
+      <c r="A77" t="s">
+        <v>239</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>380</v>
+      <c r="A78" t="s">
+        <v>240</v>
       </c>
       <c r="B78" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="C78" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>381</v>
+      <c r="A79" t="s">
+        <v>241</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C79" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>382</v>
+      <c r="A80" t="s">
+        <v>242</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>383</v>
+      <c r="A81" t="s">
+        <v>243</v>
       </c>
       <c r="B81" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>384</v>
+      <c r="A82" t="s">
+        <v>244</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>385</v>
+      <c r="A83" t="s">
+        <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>386</v>
+      <c r="A84" t="s">
+        <v>246</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="C84" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>387</v>
+      <c r="A85" t="s">
+        <v>247</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="C85" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>388</v>
+      <c r="A86" t="s">
+        <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>188</v>
+        <v>379</v>
       </c>
       <c r="C86" t="s">
-        <v>288</v>
+        <v>380</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>389</v>
+      <c r="A87" t="s">
+        <v>249</v>
       </c>
       <c r="B87" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C87" t="s">
-        <v>289</v>
+        <v>381</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>390</v>
+      <c r="A88" t="s">
+        <v>250</v>
       </c>
       <c r="B88" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>391</v>
+      <c r="A89" t="s">
+        <v>251</v>
       </c>
       <c r="B89" t="s">
-        <v>191</v>
+        <v>383</v>
       </c>
       <c r="C89" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>392</v>
+      <c r="A90" t="s">
+        <v>252</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>385</v>
       </c>
       <c r="C90" t="s">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>393</v>
+      <c r="A91" t="s">
+        <v>253</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>387</v>
       </c>
       <c r="C91" t="s">
-        <v>293</v>
+        <v>388</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>394</v>
+      <c r="A92" t="s">
+        <v>254</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>395</v>
+      <c r="A93" t="s">
+        <v>255</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>390</v>
       </c>
       <c r="C93" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>396</v>
+      <c r="A94" t="s">
+        <v>256</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="C94" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>397</v>
+      <c r="A95" t="s">
+        <v>257</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="C95" t="s">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>398</v>
+      <c r="A96" t="s">
+        <v>258</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>395</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>399</v>
+      <c r="A97" t="s">
+        <v>259</v>
       </c>
       <c r="B97" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
-        <v>299</v>
+        <v>397</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>400</v>
+      <c r="A98" t="s">
+        <v>260</v>
       </c>
       <c r="B98" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="C98" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>401</v>
+      <c r="A99" t="s">
+        <v>261</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>399</v>
       </c>
       <c r="C99" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" t="s">
+        <v>401</v>
+      </c>
+      <c r="C100" t="s">
         <v>402</v>
-      </c>
-      <c r="B100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" t="s">
-        <v>302</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" t="s">
         <v>403</v>
-      </c>
-      <c r="B101" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101" t="s">
-        <v>303</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>29</v>

--- a/audio/zh/方案二/美食店家/美食問題.xlsx
+++ b/audio/zh/方案二/美食店家/美食問題.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\audio_demo_project\audio\zh\方案二\美食店家\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5254C3-0C88-4AA7-8333-54C732263414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D46A25-7D03-4489-94D4-FC6C6004F44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1264,12 +1264,6 @@
     <t>在距離約1.48公里處，有一間「水缸豆花」是不錯的選擇，營業時間為每天的11:00至21:00，評分為4.2分。它位在701台灣台南市東區崇善路255號。如果你想避開人潮或有其他規劃，可以考慮這個地點。</t>
   </si>
   <si>
-    <t>我在旅途中想吃口感獨特的米糕,可以推薦哪間餐廳嗎?</t>
-  </si>
-  <si>
-    <t>我可以推薦「小南米糕」，它位於台南市東區大同路一段189號，距離約2.3公里。營業時間為每天10:00至19:30。評分為3.9分，有內用和外送服務。價位屬於便宜的級別。如果你在附近，不妨試試這間口碑不錯的米糕店！</t>
-  </si>
-  <si>
     <t>抱歉，目前無法提供推薦具有「甜點不佳」、「水」、「口感更濃厚」特徵的餐廳資訊，因所提條件可能有主觀認定且未包含在一般評價或基本資料中。建議洽詢櫃檯人員以獲得更準確的資訊和協助。</t>
   </si>
   <si>
@@ -1391,6 +1385,12 @@
   </si>
   <si>
     <t>台南武廟肉圓在當地頗有名氣，雖然離我所在的位置約3.2公里，但它以獨特的風味和口感而聞名。如果你想嘗試道地的台南肉圓，可以考慮前往台南武廟肉圓一試。附近店家資訊不足，建議您洽詢櫃檯協助。</t>
+  </si>
+  <si>
+    <t>我在旅途中想吃口感獨特的米糕 可以推薦哪間餐廳嗎?</t>
+  </si>
+  <si>
+    <t>我是台南老爺行旅的美食小幫手，在距離您所在位置約3.4公里處，有一家阿霞飯店，是老字號餐廳以台菜聞名，招牌菜「紅蟳米糕」是必點推薦，建議您不妨前往品嘗。</t>
   </si>
 </sst>
 </file>
@@ -1433,9 +1433,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1718,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2728,11 +2729,11 @@
       <c r="A72" t="s">
         <v>234</v>
       </c>
-      <c r="B72" t="s">
-        <v>361</v>
-      </c>
-      <c r="C72" t="s">
-        <v>362</v>
+      <c r="B72" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>58</v>
@@ -2746,7 +2747,7 @@
         <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>57</v>
@@ -2757,10 +2758,10 @@
         <v>236</v>
       </c>
       <c r="B74" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C74" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>56</v>
@@ -2771,10 +2772,10 @@
         <v>237</v>
       </c>
       <c r="B75" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C75" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>55</v>
@@ -2788,7 +2789,7 @@
         <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>54</v>
@@ -2802,7 +2803,7 @@
         <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>53</v>
@@ -2813,10 +2814,10 @@
         <v>240</v>
       </c>
       <c r="B78" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C78" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>52</v>
@@ -2830,7 +2831,7 @@
         <v>150</v>
       </c>
       <c r="C79" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>51</v>
@@ -2844,7 +2845,7 @@
         <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>50</v>
@@ -2858,7 +2859,7 @@
         <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>49</v>
@@ -2872,7 +2873,7 @@
         <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
@@ -2886,7 +2887,7 @@
         <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>47</v>
@@ -2900,7 +2901,7 @@
         <v>155</v>
       </c>
       <c r="C84" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>46</v>
@@ -2914,7 +2915,7 @@
         <v>156</v>
       </c>
       <c r="C85" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>45</v>
@@ -2925,10 +2926,10 @@
         <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C86" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>44</v>
@@ -2942,7 +2943,7 @@
         <v>157</v>
       </c>
       <c r="C87" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>43</v>
@@ -2956,7 +2957,7 @@
         <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>42</v>
@@ -2967,10 +2968,10 @@
         <v>251</v>
       </c>
       <c r="B89" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C89" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>41</v>
@@ -2981,10 +2982,10 @@
         <v>252</v>
       </c>
       <c r="B90" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C90" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>40</v>
@@ -2995,10 +2996,10 @@
         <v>253</v>
       </c>
       <c r="B91" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C91" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>39</v>
@@ -3012,7 +3013,7 @@
         <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>38</v>
@@ -3023,10 +3024,10 @@
         <v>255</v>
       </c>
       <c r="B93" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C93" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>37</v>
@@ -3040,7 +3041,7 @@
         <v>160</v>
       </c>
       <c r="C94" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>36</v>
@@ -3051,10 +3052,10 @@
         <v>257</v>
       </c>
       <c r="B95" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C95" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>35</v>
@@ -3065,10 +3066,10 @@
         <v>258</v>
       </c>
       <c r="B96" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C96" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>34</v>
@@ -3082,7 +3083,7 @@
         <v>161</v>
       </c>
       <c r="C97" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>33</v>
@@ -3096,7 +3097,7 @@
         <v>162</v>
       </c>
       <c r="C98" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>32</v>
@@ -3107,10 +3108,10 @@
         <v>261</v>
       </c>
       <c r="B99" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C99" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>31</v>
@@ -3121,10 +3122,10 @@
         <v>262</v>
       </c>
       <c r="B100" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>30</v>
@@ -3138,7 +3139,7 @@
         <v>163</v>
       </c>
       <c r="C101" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>29</v>
